--- a/U2/report/testing.xlsx
+++ b/U2/report/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\SKOLA_CVUT\MGR\ADKG\U2\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100008_{EEFF148D-26B6-47BC-82EA-DEAE0B280E1A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100008_{F7607463-B060-4F2D-AD03-274921E290B1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{CEFAD511-70BF-4EA0-AF74-936C756BD128}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
   <si>
     <t>n</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>circle</t>
-  </si>
-  <si>
-    <t>pokus</t>
   </si>
   <si>
     <t>průměr</t>
@@ -57,7 +54,22 @@
     <t>QHull</t>
   </si>
   <si>
-    <t>var</t>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>Sweep Line</t>
+  </si>
+  <si>
+    <t>Quick Hull</t>
+  </si>
+  <si>
+    <t>Jarvis Scan</t>
+  </si>
+  <si>
+    <t>pokus / n</t>
+  </si>
+  <si>
+    <t>Průměrné časy pro jednotlivé algoritmy [msec]</t>
   </si>
 </sst>
 </file>
@@ -67,8 +79,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -85,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -102,17 +123,223 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -225,7 +452,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary!$B$3</c:f>
+              <c:f>summary!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -248,7 +475,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>summary!$A$4:$A$13</c:f>
+              <c:f>summary!$B$5:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -287,7 +514,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>summary!$B$4:$B$13</c:f>
+              <c:f>summary!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -336,7 +563,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary!$C$3</c:f>
+              <c:f>summary!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -359,7 +586,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>summary!$A$4:$A$13</c:f>
+              <c:f>summary!$B$5:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -398,7 +625,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>summary!$C$4:$C$13</c:f>
+              <c:f>summary!$D$5:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -447,7 +674,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary!$D$3</c:f>
+              <c:f>summary!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -470,7 +697,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>summary!$A$4:$A$13</c:f>
+              <c:f>summary!$B$5:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -509,7 +736,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>summary!$D$4:$D$13</c:f>
+              <c:f>summary!$E$5:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1475,7 +1702,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>circle!$C$18:$L$18</c:f>
+              <c:f>circle!$C$19:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1514,7 +1741,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>circle!$C$29:$L$29</c:f>
+              <c:f>circle!$C$30:$L$30</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1958,7 +2185,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>circle!$C$33:$L$33</c:f>
+              <c:f>circle!$C$35:$L$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1997,7 +2224,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>circle!$C$44:$L$44</c:f>
+              <c:f>circle!$C$46:$L$46</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2435,7 +2662,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary!$E$3</c:f>
+              <c:f>summary!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2458,7 +2685,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>summary!$A$4:$A$13</c:f>
+              <c:f>summary!$B$5:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2497,7 +2724,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>summary!$E$4:$E$13</c:f>
+              <c:f>summary!$F$5:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2546,7 +2773,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary!$F$3</c:f>
+              <c:f>summary!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2569,7 +2796,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>summary!$A$4:$A$13</c:f>
+              <c:f>summary!$B$5:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2608,7 +2835,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>summary!$F$4:$F$13</c:f>
+              <c:f>summary!$G$5:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2657,7 +2884,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary!$G$3</c:f>
+              <c:f>summary!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2680,7 +2907,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>summary!$A$4:$A$13</c:f>
+              <c:f>summary!$B$5:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2719,7 +2946,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>summary!$G$4:$G$13</c:f>
+              <c:f>summary!$H$5:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3204,7 +3431,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary!$H$3</c:f>
+              <c:f>summary!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3227,7 +3454,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>summary!$A$4:$A$13</c:f>
+              <c:f>summary!$B$5:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3266,7 +3493,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>summary!$H$4:$H$13</c:f>
+              <c:f>summary!$I$5:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3315,7 +3542,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary!$I$3</c:f>
+              <c:f>summary!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3338,7 +3565,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>summary!$A$4:$A$13</c:f>
+              <c:f>summary!$B$5:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3377,7 +3604,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>summary!$I$4:$I$13</c:f>
+              <c:f>summary!$J$5:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3426,7 +3653,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary!$J$3</c:f>
+              <c:f>summary!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3449,7 +3676,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>summary!$A$4:$A$13</c:f>
+              <c:f>summary!$B$5:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3488,7 +3715,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>summary!$J$4:$J$13</c:f>
+              <c:f>summary!$K$5:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4454,7 +4681,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>random!$C$17:$L$17</c:f>
+              <c:f>random!$C$19:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4493,7 +4720,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>random!$C$28:$L$28</c:f>
+              <c:f>random!$C$30:$L$30</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4937,7 +5164,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>random!$C$31:$L$31</c:f>
+              <c:f>random!$C$35:$L$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4976,7 +5203,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>random!$C$42:$L$42</c:f>
+              <c:f>random!$C$46:$L$46</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5897,7 +6124,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>raster!$C$18:$L$18</c:f>
+              <c:f>raster!$C$19:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5936,7 +6163,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>raster!$C$29:$L$29</c:f>
+              <c:f>raster!$C$30:$L$30</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6380,7 +6607,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>raster!$C$33:$L$33</c:f>
+              <c:f>raster!$C$35:$L$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6419,7 +6646,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>raster!$C$44:$L$44</c:f>
+              <c:f>raster!$C$46:$L$46</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -13132,16 +13359,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13168,14 +13395,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -13206,14 +13433,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -13251,14 +13478,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13289,13 +13516,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13327,14 +13554,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13368,16 +13595,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13407,15 +13634,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13444,16 +13671,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13487,16 +13714,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13523,16 +13750,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13562,15 +13789,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13897,488 +14124,505 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94EB5D21-89F6-4653-965A-E292CE866E34}">
-  <dimension ref="A2:J13"/>
+  <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="28"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="30"/>
+      <c r="C4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
         <v>1000</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C5" s="6">
         <f>random!C14</f>
         <v>4.5</v>
       </c>
-      <c r="C4" s="3">
-        <f>random!C28</f>
+      <c r="D5" s="6">
+        <f>random!C30</f>
         <v>0.2</v>
       </c>
-      <c r="D4" s="3">
-        <f>random!C42</f>
+      <c r="E5" s="6">
+        <f>random!C46</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F5" s="21">
         <f>raster!$C$14</f>
         <v>25.7</v>
       </c>
-      <c r="F4" s="3">
-        <f>raster!$C$29</f>
+      <c r="G5" s="6">
+        <f>raster!$C$30</f>
         <v>0.1</v>
       </c>
-      <c r="G4" s="3">
-        <f>raster!$C$44</f>
+      <c r="H5" s="7">
+        <f>raster!$C$46</f>
         <v>1</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I5" s="6">
         <f>circle!C14</f>
         <v>44.7</v>
       </c>
-      <c r="I4" s="3">
-        <f>circle!C29</f>
+      <c r="J5" s="6">
+        <f>circle!C30</f>
         <v>1.5</v>
       </c>
-      <c r="J4" s="3">
-        <f>circle!C44</f>
+      <c r="K5" s="7">
+        <f>circle!C46</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
         <v>5000</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C6" s="6">
         <f>random!D14</f>
         <v>36.299999999999997</v>
       </c>
-      <c r="C5" s="3">
-        <f>random!D28</f>
+      <c r="D6" s="6">
+        <f>random!D30</f>
         <v>1.7</v>
       </c>
-      <c r="D5" s="3">
-        <f>random!D42</f>
+      <c r="E6" s="6">
+        <f>random!D46</f>
         <v>22.5</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F6" s="21">
         <f>raster!$D$14</f>
         <v>284.5</v>
       </c>
-      <c r="F5" s="3">
-        <f>raster!$D$29</f>
+      <c r="G6" s="6">
+        <f>raster!$D$30</f>
         <v>0.8</v>
       </c>
-      <c r="G5" s="3">
-        <f>raster!$D$44</f>
+      <c r="H6" s="7">
+        <f>raster!$D$46</f>
         <v>22.6</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I6" s="6">
         <f>circle!D14</f>
         <v>441.5</v>
       </c>
-      <c r="I5" s="3">
-        <f>circle!D29</f>
+      <c r="J6" s="6">
+        <f>circle!D30</f>
         <v>7.2</v>
       </c>
-      <c r="J5" s="3">
-        <f>circle!D44</f>
+      <c r="K6" s="7">
+        <f>circle!D46</f>
         <v>17.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
         <v>10000</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C7" s="6">
         <f>random!E14</f>
         <v>94.8</v>
       </c>
-      <c r="C6" s="3">
-        <f>random!E28</f>
+      <c r="D7" s="6">
+        <f>random!E30</f>
         <v>3.2</v>
       </c>
-      <c r="D6" s="3">
-        <f>random!E42</f>
+      <c r="E7" s="6">
+        <f>random!E46</f>
         <v>92.6</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F7" s="21">
         <f>raster!$E$14</f>
         <v>794.2</v>
       </c>
-      <c r="F6" s="3">
-        <f>raster!$E$29</f>
+      <c r="G7" s="6">
+        <f>raster!$E$30</f>
         <v>1.6</v>
       </c>
-      <c r="G6" s="3">
-        <f>raster!$E$44</f>
+      <c r="H7" s="7">
+        <f>raster!$E$46</f>
         <v>84.4</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I7" s="6">
         <f>circle!E14</f>
         <v>875</v>
       </c>
-      <c r="I6" s="3">
-        <f>circle!E29</f>
+      <c r="J7" s="6">
+        <f>circle!E30</f>
         <v>14</v>
       </c>
-      <c r="J6" s="3">
-        <f>circle!E44</f>
+      <c r="K7" s="7">
+        <f>circle!E46</f>
         <v>71.099999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
         <v>25000</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C8" s="6">
         <f>random!F14</f>
         <v>475.9</v>
       </c>
-      <c r="C7" s="3">
-        <f>random!F28</f>
+      <c r="D8" s="6">
+        <f>random!F30</f>
         <v>6.3</v>
       </c>
-      <c r="D7" s="3">
-        <f>random!F42</f>
+      <c r="E8" s="6">
+        <f>random!F46</f>
         <v>539.29999999999995</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F8" s="21">
         <f>raster!$F$14</f>
         <v>3207.6</v>
       </c>
-      <c r="F7" s="3">
-        <f>raster!$F$29</f>
+      <c r="G8" s="6">
+        <f>raster!$F$30</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="G7" s="3">
-        <f>raster!$F$44</f>
+      <c r="H8" s="7">
+        <f>raster!$F$46</f>
         <v>462.9</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I8" s="6">
         <f>circle!F14</f>
         <v>2382.6999999999998</v>
       </c>
-      <c r="I7" s="3">
-        <f>circle!F29</f>
+      <c r="J8" s="6">
+        <f>circle!F30</f>
         <v>34</v>
       </c>
-      <c r="J7" s="3">
-        <f>circle!F44</f>
+      <c r="K8" s="7">
+        <f>circle!F46</f>
         <v>389.2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
         <v>50000</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C9" s="6">
         <f>random!G14</f>
         <v>2078.1999999999998</v>
       </c>
-      <c r="C8" s="3">
-        <f>random!G28</f>
+      <c r="D9" s="6">
+        <f>random!G30</f>
         <v>13.1</v>
       </c>
-      <c r="D8" s="3">
-        <f>random!G42</f>
+      <c r="E9" s="6">
+        <f>random!G46</f>
         <v>2091.6999999999998</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F9" s="21">
         <f>raster!$G$14</f>
         <v>9096.5</v>
       </c>
-      <c r="F8" s="3">
-        <f>raster!$G$29</f>
+      <c r="G9" s="6">
+        <f>raster!$G$30</f>
         <v>9.1</v>
       </c>
-      <c r="G8" s="3">
-        <f>raster!$G$44</f>
+      <c r="H9" s="7">
+        <f>raster!$G$46</f>
         <v>1719.1</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I9" s="6">
         <f>circle!G14</f>
         <v>4847.1000000000004</v>
       </c>
-      <c r="I8" s="3">
-        <f>circle!G29</f>
+      <c r="J9" s="6">
+        <f>circle!G30</f>
         <v>67.3</v>
       </c>
-      <c r="J8" s="3">
-        <f>circle!G44</f>
+      <c r="K9" s="7">
+        <f>circle!G46</f>
         <v>1502.8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
         <v>75000</v>
       </c>
-      <c r="B9" s="3">
+      <c r="C10" s="6">
         <f>random!H14</f>
         <v>4424.1000000000004</v>
       </c>
-      <c r="C9" s="3">
-        <f>random!H28</f>
+      <c r="D10" s="6">
+        <f>random!H30</f>
         <v>19</v>
       </c>
-      <c r="D9" s="3">
-        <f>random!H42</f>
+      <c r="E10" s="6">
+        <f>random!H46</f>
         <v>4450.3999999999996</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F10" s="21">
         <f>raster!$H$14</f>
         <v>16612.3</v>
       </c>
-      <c r="F9" s="3">
-        <f>raster!$H$29</f>
+      <c r="G10" s="6">
+        <f>raster!$H$30</f>
         <v>14.6</v>
       </c>
-      <c r="G9" s="3">
-        <f>raster!$H$44</f>
+      <c r="H10" s="7">
+        <f>raster!$H$46</f>
         <v>3723.1</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I10" s="6">
         <f>circle!H14</f>
         <v>7265.5</v>
       </c>
-      <c r="I9" s="3">
-        <f>circle!H29</f>
+      <c r="J10" s="6">
+        <f>circle!H30</f>
         <v>100.7</v>
       </c>
-      <c r="J9" s="3">
-        <f>circle!H44</f>
+      <c r="K10" s="7">
+        <f>circle!H46</f>
         <v>3468.3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
         <v>100000</v>
       </c>
-      <c r="B10" s="3">
+      <c r="C11" s="6">
         <f>random!I14</f>
         <v>8890.2000000000007</v>
       </c>
-      <c r="C10" s="3">
-        <f>random!I28</f>
+      <c r="D11" s="6">
+        <f>random!I30</f>
         <v>27.9</v>
       </c>
-      <c r="D10" s="3">
-        <f>random!I42</f>
+      <c r="E11" s="6">
+        <f>random!I46</f>
         <v>7818.6</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F11" s="21">
         <f>raster!$I$14</f>
         <v>25434.799999999999</v>
       </c>
-      <c r="F10" s="3">
-        <f>raster!$I$29</f>
+      <c r="G11" s="6">
+        <f>raster!$I$30</f>
         <v>19.399999999999999</v>
       </c>
-      <c r="G10" s="3">
-        <f>raster!$I$44</f>
+      <c r="H11" s="7">
+        <f>raster!$I$46</f>
         <v>6763.6</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I11" s="6">
         <f>circle!I14</f>
         <v>9729.6</v>
       </c>
-      <c r="I10" s="3">
-        <f>circle!I29</f>
+      <c r="J11" s="6">
+        <f>circle!I30</f>
         <v>133.4</v>
       </c>
-      <c r="J10" s="3">
-        <f>circle!I44</f>
+      <c r="K11" s="7">
+        <f>circle!I46</f>
         <v>6254.1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
         <v>200000</v>
       </c>
-      <c r="B11" s="3">
+      <c r="C12" s="6">
         <f>random!J14</f>
         <v>32830.6</v>
       </c>
-      <c r="C11" s="3">
-        <f>random!J28</f>
+      <c r="D12" s="6">
+        <f>random!J30</f>
         <v>52</v>
       </c>
-      <c r="D11" s="3">
-        <f>random!J42</f>
+      <c r="E12" s="6">
+        <f>random!J46</f>
         <v>31694.400000000001</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F12" s="21">
         <f>raster!$J$14</f>
         <v>71724</v>
       </c>
-      <c r="F11" s="3">
-        <f>raster!$J$29</f>
+      <c r="G12" s="6">
+        <f>raster!$J$30</f>
         <v>33.4</v>
       </c>
-      <c r="G11" s="3">
-        <f>raster!$J$44</f>
+      <c r="H12" s="7">
+        <f>raster!$J$46</f>
         <v>27294.5</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I12" s="6">
         <f>circle!J14</f>
         <v>19879.8</v>
       </c>
-      <c r="I11" s="3">
-        <f>circle!J29</f>
+      <c r="J12" s="6">
+        <f>circle!J30</f>
         <v>265.2</v>
       </c>
-      <c r="J11" s="3">
-        <f>circle!J44</f>
+      <c r="K12" s="7">
+        <f>circle!J46</f>
         <v>25542</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
         <v>500000</v>
       </c>
-      <c r="B12" s="3">
+      <c r="C13" s="6">
         <f>random!K14</f>
         <v>126622.3</v>
       </c>
-      <c r="C12" s="3">
-        <f>random!K28</f>
+      <c r="D13" s="6">
+        <f>random!K30</f>
         <v>130.80000000000001</v>
       </c>
-      <c r="D12" s="3">
-        <f>random!K42</f>
+      <c r="E13" s="6">
+        <f>random!K46</f>
         <v>179290.2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F13" s="21">
         <f>raster!$K$14</f>
         <v>272534.8</v>
       </c>
-      <c r="F12" s="3">
-        <f>raster!$K$29</f>
+      <c r="G13" s="6">
+        <f>raster!$K$30</f>
         <v>89.5</v>
       </c>
-      <c r="G12" s="3">
-        <f>raster!$K$44</f>
+      <c r="H13" s="7">
+        <f>raster!$K$46</f>
         <v>179383.6</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I13" s="6">
         <f>circle!K14</f>
         <v>48700.1</v>
       </c>
-      <c r="I12" s="3">
-        <f>circle!K29</f>
+      <c r="J13" s="6">
+        <f>circle!K30</f>
         <v>673.7</v>
       </c>
-      <c r="J12" s="3">
-        <f>circle!K44</f>
+      <c r="K13" s="7">
+        <f>circle!K46</f>
         <v>185213.4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
         <v>1000000</v>
       </c>
-      <c r="B13" s="3">
+      <c r="C14" s="14">
         <f>random!L14</f>
         <v>378372.1</v>
       </c>
-      <c r="C13" s="3">
-        <f>random!L28</f>
+      <c r="D14" s="14">
+        <f>random!L30</f>
         <v>245.7</v>
       </c>
-      <c r="D13" s="3">
-        <f>random!L42</f>
+      <c r="E14" s="14">
+        <f>random!L46</f>
         <v>635048.4</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F14" s="22">
         <f>raster!$L$14</f>
         <v>567696.9</v>
       </c>
-      <c r="F13" s="3">
-        <f>raster!$L$29</f>
+      <c r="G14" s="14">
+        <f>raster!$L$30</f>
         <v>187.1</v>
       </c>
-      <c r="G13" s="3">
-        <f>raster!$L$44</f>
+      <c r="H14" s="15">
+        <f>raster!$L$46</f>
         <v>745138.1</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I14" s="14">
         <f>circle!L14</f>
         <v>73295.8</v>
       </c>
-      <c r="I13" s="3">
-        <f>circle!L29</f>
+      <c r="J14" s="14">
+        <f>circle!L30</f>
         <v>1373.5</v>
       </c>
-      <c r="J13" s="3">
-        <f>circle!L44</f>
+      <c r="K14" s="15">
+        <f>circle!L46</f>
         <v>799618.4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
+  <mergeCells count="5">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14387,10 +14631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43718E85-AD71-4B48-9361-1429EADDF8C1}">
-  <dimension ref="A3:M42"/>
+  <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14401,361 +14645,373 @@
     <col min="12" max="12" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="12">
+        <v>5000</v>
+      </c>
+      <c r="E3" s="12">
+        <v>10000</v>
+      </c>
+      <c r="F3" s="12">
+        <v>25000</v>
+      </c>
+      <c r="G3" s="12">
+        <v>50000</v>
+      </c>
+      <c r="H3" s="12">
+        <v>75000</v>
+      </c>
+      <c r="I3" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J3" s="12">
+        <v>200000</v>
+      </c>
+      <c r="K3" s="12">
+        <v>500000</v>
+      </c>
+      <c r="L3" s="13">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2">
+        <v>95</v>
+      </c>
+      <c r="F4" s="2">
+        <v>480</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2072</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4377</v>
+      </c>
+      <c r="I4" s="2">
+        <v>8913</v>
+      </c>
+      <c r="J4" s="2">
+        <v>32174</v>
+      </c>
+      <c r="K4" s="2">
+        <v>125132</v>
+      </c>
+      <c r="L4" s="4">
+        <v>370432</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2">
+        <v>97</v>
+      </c>
+      <c r="F5" s="2">
+        <v>478</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2057</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4430</v>
+      </c>
+      <c r="I5" s="2">
+        <v>8892</v>
+      </c>
+      <c r="J5" s="2">
+        <v>32170</v>
+      </c>
+      <c r="K5" s="2">
+        <v>124952</v>
+      </c>
+      <c r="L5" s="4">
+        <v>369450</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2">
+        <v>96</v>
+      </c>
+      <c r="F6" s="2">
+        <v>477</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2073</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4417</v>
+      </c>
+      <c r="I6" s="2">
+        <v>8922</v>
+      </c>
+      <c r="J6" s="2">
+        <v>32134</v>
+      </c>
+      <c r="K6" s="2">
+        <v>124936</v>
+      </c>
+      <c r="L6" s="4">
+        <v>371191</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2">
+        <v>94</v>
+      </c>
+      <c r="F7" s="2">
+        <v>475</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2067</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4419</v>
+      </c>
+      <c r="I7" s="2">
+        <v>8897</v>
+      </c>
+      <c r="J7" s="2">
+        <v>36948</v>
+      </c>
+      <c r="K7" s="2">
+        <v>125149</v>
+      </c>
+      <c r="L7" s="4">
+        <v>375635</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2">
+        <v>94</v>
+      </c>
+      <c r="F8" s="2">
+        <v>474</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2069</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4421</v>
+      </c>
+      <c r="I8" s="2">
+        <v>8883</v>
+      </c>
+      <c r="J8" s="2">
+        <v>32640</v>
+      </c>
+      <c r="K8" s="2">
+        <v>131007</v>
+      </c>
+      <c r="L8" s="4">
+        <v>392219</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-      <c r="D3">
-        <v>5000</v>
-      </c>
-      <c r="E3">
-        <v>10000</v>
-      </c>
-      <c r="F3">
-        <v>25000</v>
-      </c>
-      <c r="G3">
-        <v>50000</v>
-      </c>
-      <c r="H3">
-        <v>75000</v>
-      </c>
-      <c r="I3">
-        <v>100000</v>
-      </c>
-      <c r="J3">
-        <v>200000</v>
-      </c>
-      <c r="K3">
-        <v>500000</v>
-      </c>
-      <c r="L3">
-        <v>1000000</v>
+      <c r="D9" s="2">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2">
+        <v>93</v>
+      </c>
+      <c r="F9" s="2">
+        <v>476</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2087</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4439</v>
+      </c>
+      <c r="I9" s="2">
+        <v>8879</v>
+      </c>
+      <c r="J9" s="2">
+        <v>32168</v>
+      </c>
+      <c r="K9" s="2">
+        <v>126332</v>
+      </c>
+      <c r="L9" s="4">
+        <v>383441</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D10" s="2">
         <v>37</v>
       </c>
-      <c r="E4">
-        <v>95</v>
-      </c>
-      <c r="F4">
-        <v>480</v>
-      </c>
-      <c r="G4">
-        <v>2072</v>
-      </c>
-      <c r="H4">
-        <v>4377</v>
-      </c>
-      <c r="I4">
-        <v>8913</v>
-      </c>
-      <c r="J4">
-        <v>32174</v>
-      </c>
-      <c r="K4">
-        <v>125132</v>
-      </c>
-      <c r="L4">
-        <v>370432</v>
+      <c r="E10" s="2">
+        <v>94</v>
+      </c>
+      <c r="F10" s="2">
+        <v>474</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2079</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4428</v>
+      </c>
+      <c r="I10" s="2">
+        <v>8883</v>
+      </c>
+      <c r="J10" s="2">
+        <v>32210</v>
+      </c>
+      <c r="K10" s="2">
+        <v>126224</v>
+      </c>
+      <c r="L10" s="4">
+        <v>385815</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D11" s="2">
         <v>36</v>
       </c>
-      <c r="E5">
-        <v>97</v>
-      </c>
-      <c r="F5">
-        <v>478</v>
-      </c>
-      <c r="G5">
-        <v>2057</v>
-      </c>
-      <c r="H5">
-        <v>4430</v>
-      </c>
-      <c r="I5">
-        <v>8892</v>
-      </c>
-      <c r="J5">
-        <v>32170</v>
-      </c>
-      <c r="K5">
-        <v>124952</v>
-      </c>
-      <c r="L5">
-        <v>369450</v>
+      <c r="E11" s="2">
+        <v>94</v>
+      </c>
+      <c r="F11" s="2">
+        <v>474</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2124</v>
+      </c>
+      <c r="H11" s="2">
+        <v>4441</v>
+      </c>
+      <c r="I11" s="2">
+        <v>8878</v>
+      </c>
+      <c r="J11" s="2">
+        <v>32246</v>
+      </c>
+      <c r="K11" s="2">
+        <v>128737</v>
+      </c>
+      <c r="L11" s="4">
+        <v>380221</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>37</v>
-      </c>
-      <c r="E6">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2">
         <v>96</v>
       </c>
-      <c r="F6">
-        <v>477</v>
-      </c>
-      <c r="G6">
-        <v>2073</v>
-      </c>
-      <c r="H6">
-        <v>4417</v>
-      </c>
-      <c r="I6">
-        <v>8922</v>
-      </c>
-      <c r="J6">
-        <v>32134</v>
-      </c>
-      <c r="K6">
-        <v>124936</v>
-      </c>
-      <c r="L6">
-        <v>371191</v>
+      <c r="F12" s="2">
+        <v>476</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2069</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4419</v>
+      </c>
+      <c r="I12" s="2">
+        <v>8877</v>
+      </c>
+      <c r="J12" s="2">
+        <v>32244</v>
+      </c>
+      <c r="K12" s="2">
+        <v>126489</v>
+      </c>
+      <c r="L12" s="4">
+        <v>383023</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>36</v>
-      </c>
-      <c r="E7">
-        <v>94</v>
-      </c>
-      <c r="F7">
-        <v>475</v>
-      </c>
-      <c r="G7">
-        <v>2067</v>
-      </c>
-      <c r="H7">
-        <v>4419</v>
-      </c>
-      <c r="I7">
-        <v>8897</v>
-      </c>
-      <c r="J7">
-        <v>36948</v>
-      </c>
-      <c r="K7">
-        <v>125149</v>
-      </c>
-      <c r="L7">
-        <v>375635</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>36</v>
-      </c>
-      <c r="E8">
-        <v>94</v>
-      </c>
-      <c r="F8">
-        <v>474</v>
-      </c>
-      <c r="G8">
-        <v>2069</v>
-      </c>
-      <c r="H8">
-        <v>4421</v>
-      </c>
-      <c r="I8">
-        <v>8883</v>
-      </c>
-      <c r="J8">
-        <v>32640</v>
-      </c>
-      <c r="K8">
-        <v>131007</v>
-      </c>
-      <c r="L8">
-        <v>392219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>35</v>
-      </c>
-      <c r="E9">
-        <v>93</v>
-      </c>
-      <c r="F9">
-        <v>476</v>
-      </c>
-      <c r="G9">
-        <v>2087</v>
-      </c>
-      <c r="H9">
-        <v>4439</v>
-      </c>
-      <c r="I9">
-        <v>8879</v>
-      </c>
-      <c r="J9">
-        <v>32168</v>
-      </c>
-      <c r="K9">
-        <v>126332</v>
-      </c>
-      <c r="L9">
-        <v>383441</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>37</v>
-      </c>
-      <c r="E10">
-        <v>94</v>
-      </c>
-      <c r="F10">
-        <v>474</v>
-      </c>
-      <c r="G10">
-        <v>2079</v>
-      </c>
-      <c r="H10">
-        <v>4428</v>
-      </c>
-      <c r="I10">
-        <v>8883</v>
-      </c>
-      <c r="J10">
-        <v>32210</v>
-      </c>
-      <c r="K10">
-        <v>126224</v>
-      </c>
-      <c r="L10">
-        <v>385815</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>36</v>
-      </c>
-      <c r="E11">
-        <v>94</v>
-      </c>
-      <c r="F11">
-        <v>474</v>
-      </c>
-      <c r="G11">
-        <v>2124</v>
-      </c>
-      <c r="H11">
-        <v>4441</v>
-      </c>
-      <c r="I11">
-        <v>8878</v>
-      </c>
-      <c r="J11">
-        <v>32246</v>
-      </c>
-      <c r="K11">
-        <v>128737</v>
-      </c>
-      <c r="L11">
-        <v>380221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>36</v>
-      </c>
-      <c r="E12">
-        <v>96</v>
-      </c>
-      <c r="F12">
-        <v>476</v>
-      </c>
-      <c r="G12">
-        <v>2069</v>
-      </c>
-      <c r="H12">
-        <v>4419</v>
-      </c>
-      <c r="I12">
-        <v>8877</v>
-      </c>
-      <c r="J12">
-        <v>32244</v>
-      </c>
-      <c r="K12">
-        <v>126489</v>
-      </c>
-      <c r="L12">
-        <v>383023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
         <v>10</v>
       </c>
       <c r="C13" s="1">
@@ -14785,934 +15041,1111 @@
       <c r="K13" s="1">
         <v>127265</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="5">
         <v>372294</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="16">
         <f>AVERAGE(C4:C13)</f>
         <v>4.5</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="16">
         <f>AVERAGE(D4:D13)</f>
         <v>36.299999999999997</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="16">
         <f>AVERAGE(E4:E13)</f>
         <v>94.8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="16">
         <f t="shared" ref="F14:L14" si="0">AVERAGE(F4:F13)</f>
         <v>475.9</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="16">
         <f t="shared" si="0"/>
         <v>2078.1999999999998</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="16">
         <f t="shared" si="0"/>
         <v>4424.1000000000004</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="16">
         <f t="shared" si="0"/>
         <v>8890.2000000000007</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="16">
         <f t="shared" si="0"/>
         <v>32830.6</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="16">
         <f t="shared" si="0"/>
         <v>126622.3</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="17">
         <f t="shared" si="0"/>
         <v>378372.1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C15" s="1">
+        <f>_xlfn.VAR.P(C4:C13)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D15" s="1">
+        <f>_xlfn.VAR.P(D4:D13)</f>
+        <v>0.41</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ref="E15:L15" si="1">_xlfn.VAR.P(E4:E13)</f>
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4900000000000007</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>303.16000000000003</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>355.89000000000016</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>228.16</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>2014523.2400000002</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="1"/>
+        <v>3439641.6099999994</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="1"/>
+        <v>53652871.890000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="12">
+        <v>5000</v>
+      </c>
+      <c r="E19" s="12">
+        <v>10000</v>
+      </c>
+      <c r="F19" s="12">
+        <v>25000</v>
+      </c>
+      <c r="G19" s="12">
+        <v>50000</v>
+      </c>
+      <c r="H19" s="12">
+        <v>75000</v>
+      </c>
+      <c r="I19" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J19" s="12">
+        <v>200000</v>
+      </c>
+      <c r="K19" s="12">
+        <v>500000</v>
+      </c>
+      <c r="L19" s="13">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2">
+        <v>14</v>
+      </c>
+      <c r="H20" s="2">
+        <v>20</v>
+      </c>
+      <c r="I20" s="2">
+        <v>28</v>
+      </c>
+      <c r="J20" s="2">
+        <v>52</v>
+      </c>
+      <c r="K20" s="2">
+        <v>130</v>
+      </c>
+      <c r="L20" s="4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="9">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2">
+        <v>7</v>
+      </c>
+      <c r="G21" s="2">
+        <v>13</v>
+      </c>
+      <c r="H21" s="2">
+        <v>19</v>
+      </c>
+      <c r="I21" s="2">
+        <v>28</v>
+      </c>
+      <c r="J21" s="2">
+        <v>52</v>
+      </c>
+      <c r="K21" s="2">
+        <v>132</v>
+      </c>
+      <c r="L21" s="4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2">
+        <v>13</v>
+      </c>
+      <c r="H22" s="2">
+        <v>19</v>
+      </c>
+      <c r="I22" s="2">
+        <v>28</v>
+      </c>
+      <c r="J22" s="2">
+        <v>52</v>
+      </c>
+      <c r="K22" s="2">
+        <v>131</v>
+      </c>
+      <c r="L22" s="4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="9">
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2">
+        <v>6</v>
+      </c>
+      <c r="G23" s="2">
+        <v>13</v>
+      </c>
+      <c r="H23" s="2">
+        <v>19</v>
+      </c>
+      <c r="I23" s="2">
+        <v>28</v>
+      </c>
+      <c r="J23" s="2">
+        <v>52</v>
+      </c>
+      <c r="K23" s="2">
+        <v>132</v>
+      </c>
+      <c r="L23" s="4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="9">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2">
+        <v>6</v>
+      </c>
+      <c r="G24" s="2">
+        <v>13</v>
+      </c>
+      <c r="H24" s="2">
+        <v>19</v>
+      </c>
+      <c r="I24" s="2">
+        <v>28</v>
+      </c>
+      <c r="J24" s="2">
+        <v>52</v>
+      </c>
+      <c r="K24" s="2">
+        <v>132</v>
+      </c>
+      <c r="L24" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="9">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2">
+        <v>6</v>
+      </c>
+      <c r="G25" s="2">
+        <v>13</v>
+      </c>
+      <c r="H25" s="2">
+        <v>19</v>
+      </c>
+      <c r="I25" s="2">
+        <v>28</v>
+      </c>
+      <c r="J25" s="2">
+        <v>53</v>
+      </c>
+      <c r="K25" s="2">
+        <v>130</v>
+      </c>
+      <c r="L25" s="4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="9">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2">
+        <v>6</v>
+      </c>
+      <c r="G26" s="2">
+        <v>13</v>
+      </c>
+      <c r="H26" s="2">
+        <v>18</v>
+      </c>
+      <c r="I26" s="2">
+        <v>27</v>
+      </c>
+      <c r="J26" s="2">
+        <v>52</v>
+      </c>
+      <c r="K26" s="2">
+        <v>129</v>
+      </c>
+      <c r="L26" s="4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="9">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2">
+        <v>6</v>
+      </c>
+      <c r="G27" s="2">
+        <v>13</v>
+      </c>
+      <c r="H27" s="2">
+        <v>19</v>
+      </c>
+      <c r="I27" s="2">
+        <v>28</v>
+      </c>
+      <c r="J27" s="2">
+        <v>52</v>
+      </c>
+      <c r="K27" s="2">
+        <v>130</v>
+      </c>
+      <c r="L27" s="4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="9">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2">
+        <v>7</v>
+      </c>
+      <c r="G28" s="2">
+        <v>13</v>
+      </c>
+      <c r="H28" s="2">
+        <v>19</v>
+      </c>
+      <c r="I28" s="2">
+        <v>28</v>
+      </c>
+      <c r="J28" s="2">
+        <v>51</v>
+      </c>
+      <c r="K28" s="2">
+        <v>134</v>
+      </c>
+      <c r="L28" s="4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="9">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1">
+        <v>6</v>
+      </c>
+      <c r="G29" s="1">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1">
+        <v>19</v>
+      </c>
+      <c r="I29" s="1">
+        <v>28</v>
+      </c>
+      <c r="J29" s="1">
+        <v>52</v>
+      </c>
+      <c r="K29" s="1">
+        <v>128</v>
+      </c>
+      <c r="L29" s="5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="16">
+        <f>AVERAGE(C20:C29)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D30" s="16">
+        <f>AVERAGE(D20:D29)</f>
+        <v>1.7</v>
+      </c>
+      <c r="E30" s="16">
+        <f>AVERAGE(E20:E29)</f>
+        <v>3.2</v>
+      </c>
+      <c r="F30" s="16">
+        <f t="shared" ref="F30:L30" si="2">AVERAGE(F20:F29)</f>
+        <v>6.3</v>
+      </c>
+      <c r="G30" s="16">
+        <f t="shared" si="2"/>
+        <v>13.1</v>
+      </c>
+      <c r="H30" s="16">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="I30" s="16">
+        <f t="shared" si="2"/>
+        <v>27.9</v>
+      </c>
+      <c r="J30" s="16">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="K30" s="16">
+        <f t="shared" si="2"/>
+        <v>130.80000000000001</v>
+      </c>
+      <c r="L30" s="17">
+        <f t="shared" si="2"/>
+        <v>245.7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="14">
+        <f>_xlfn.VAR.P(C20:C29)</f>
+        <v>0.16</v>
+      </c>
+      <c r="D31" s="14">
+        <f>_xlfn.VAR.P(D20:D29)</f>
+        <v>0.21</v>
+      </c>
+      <c r="E31" s="14">
+        <f t="shared" ref="E31:L31" si="3">_xlfn.VAR.P(E20:E29)</f>
+        <v>0.16</v>
+      </c>
+      <c r="F31" s="14">
+        <f t="shared" si="3"/>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="G31" s="14">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="H31" s="14">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="I31" s="14">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999983E-2</v>
+      </c>
+      <c r="J31" s="14">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="K31" s="14">
+        <f>_xlfn.VAR.P(K20:K29)</f>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="L31" s="15">
+        <f t="shared" si="3"/>
+        <v>17.609999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="12">
         <v>1000</v>
       </c>
-      <c r="D17">
+      <c r="D35" s="12">
         <v>5000</v>
       </c>
-      <c r="E17">
+      <c r="E35" s="12">
         <v>10000</v>
       </c>
-      <c r="F17">
+      <c r="F35" s="12">
         <v>25000</v>
       </c>
-      <c r="G17">
+      <c r="G35" s="12">
         <v>50000</v>
       </c>
-      <c r="H17">
+      <c r="H35" s="12">
         <v>75000</v>
       </c>
-      <c r="I17">
+      <c r="I35" s="12">
         <v>100000</v>
       </c>
-      <c r="J17">
+      <c r="J35" s="12">
         <v>200000</v>
       </c>
-      <c r="K17">
+      <c r="K35" s="12">
         <v>500000</v>
       </c>
-      <c r="L17">
+      <c r="L35" s="13">
         <v>1000000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="9">
         <v>1</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>22</v>
+      </c>
+      <c r="E36" s="2">
+        <v>87</v>
+      </c>
+      <c r="F36" s="2">
+        <v>556</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2118</v>
+      </c>
+      <c r="H36" s="2">
+        <v>4459</v>
+      </c>
+      <c r="I36" s="2">
+        <v>7737</v>
+      </c>
+      <c r="J36" s="2">
+        <v>30720</v>
+      </c>
+      <c r="K36" s="2">
+        <v>179375</v>
+      </c>
+      <c r="L36" s="4">
+        <v>687846</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="9">
         <v>2</v>
       </c>
-      <c r="E18">
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>22</v>
+      </c>
+      <c r="E37" s="2">
+        <v>89</v>
+      </c>
+      <c r="F37" s="2">
+        <v>564</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2056</v>
+      </c>
+      <c r="H37" s="2">
+        <v>4453</v>
+      </c>
+      <c r="I37" s="2">
+        <v>7729</v>
+      </c>
+      <c r="J37" s="2">
+        <v>30366</v>
+      </c>
+      <c r="K37" s="2">
+        <v>183733</v>
+      </c>
+      <c r="L37" s="4">
+        <v>704175</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="9">
         <v>3</v>
       </c>
-      <c r="F18">
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>22</v>
+      </c>
+      <c r="E38" s="2">
+        <v>92</v>
+      </c>
+      <c r="F38" s="2">
+        <v>554</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2088</v>
+      </c>
+      <c r="H38" s="2">
+        <v>4445</v>
+      </c>
+      <c r="I38" s="2">
+        <v>7736</v>
+      </c>
+      <c r="J38" s="2">
+        <v>30346</v>
+      </c>
+      <c r="K38" s="2">
+        <v>181597</v>
+      </c>
+      <c r="L38" s="4">
+        <v>654683</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="9">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>22</v>
+      </c>
+      <c r="E39" s="2">
+        <v>87</v>
+      </c>
+      <c r="F39" s="2">
+        <v>540</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2137</v>
+      </c>
+      <c r="H39" s="2">
+        <v>4478</v>
+      </c>
+      <c r="I39" s="2">
+        <v>7730</v>
+      </c>
+      <c r="J39" s="2">
+        <v>30396</v>
+      </c>
+      <c r="K39" s="2">
+        <v>177733</v>
+      </c>
+      <c r="L39" s="4">
+        <v>622306</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="9">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>22</v>
+      </c>
+      <c r="E40" s="2">
+        <v>101</v>
+      </c>
+      <c r="F40" s="2">
+        <v>555</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2082</v>
+      </c>
+      <c r="H40" s="2">
+        <v>4443</v>
+      </c>
+      <c r="I40" s="2">
+        <v>7758</v>
+      </c>
+      <c r="J40" s="2">
+        <v>34322</v>
+      </c>
+      <c r="K40" s="2">
+        <v>177403</v>
+      </c>
+      <c r="L40" s="4">
+        <v>617258</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="9">
         <v>6</v>
       </c>
-      <c r="G18">
-        <v>14</v>
-      </c>
-      <c r="H18">
-        <v>20</v>
-      </c>
-      <c r="I18">
-        <v>28</v>
-      </c>
-      <c r="J18">
-        <v>52</v>
-      </c>
-      <c r="K18">
-        <v>130</v>
-      </c>
-      <c r="L18">
-        <v>247</v>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>22</v>
+      </c>
+      <c r="E41" s="2">
+        <v>101</v>
+      </c>
+      <c r="F41" s="2">
+        <v>531</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2100</v>
+      </c>
+      <c r="H41" s="2">
+        <v>4442</v>
+      </c>
+      <c r="I41" s="2">
+        <v>7742</v>
+      </c>
+      <c r="J41" s="2">
+        <v>31732</v>
+      </c>
+      <c r="K41" s="2">
+        <v>177527</v>
+      </c>
+      <c r="L41" s="4">
+        <v>605910</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="9">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>22</v>
+      </c>
+      <c r="E42" s="2">
+        <v>101</v>
+      </c>
+      <c r="F42" s="2">
+        <v>512</v>
+      </c>
+      <c r="G42" s="2">
+        <v>2018</v>
+      </c>
+      <c r="H42" s="2">
+        <v>4442</v>
+      </c>
+      <c r="I42" s="2">
+        <v>8107</v>
+      </c>
+      <c r="J42" s="2">
+        <v>30937</v>
+      </c>
+      <c r="K42" s="2">
+        <v>179711</v>
+      </c>
+      <c r="L42" s="4">
+        <v>603503</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="9">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>29</v>
+      </c>
+      <c r="E43" s="2">
+        <v>84</v>
+      </c>
+      <c r="F43" s="2">
+        <v>526</v>
+      </c>
+      <c r="G43" s="2">
+        <v>2160</v>
+      </c>
+      <c r="H43" s="2">
+        <v>4442</v>
+      </c>
+      <c r="I43" s="2">
+        <v>8137</v>
+      </c>
+      <c r="J43" s="2">
+        <v>31894</v>
+      </c>
+      <c r="K43" s="2">
+        <v>175928</v>
+      </c>
+      <c r="L43" s="4">
+        <v>616161</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="9">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2">
         <v>2</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
+      <c r="D44" s="2">
+        <v>21</v>
+      </c>
+      <c r="E44" s="2">
+        <v>90</v>
+      </c>
+      <c r="F44" s="2">
+        <v>529</v>
+      </c>
+      <c r="G44" s="2">
+        <v>2048</v>
+      </c>
+      <c r="H44" s="2">
+        <v>4456</v>
+      </c>
+      <c r="I44" s="2">
+        <v>7730</v>
+      </c>
+      <c r="J44" s="2">
+        <v>32097</v>
+      </c>
+      <c r="K44" s="2">
+        <v>181377</v>
+      </c>
+      <c r="L44" s="4">
+        <v>623966</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="9">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1">
         <v>1</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>7</v>
-      </c>
-      <c r="G19">
-        <v>13</v>
-      </c>
-      <c r="H19">
-        <v>19</v>
-      </c>
-      <c r="I19">
-        <v>28</v>
-      </c>
-      <c r="J19">
-        <v>52</v>
-      </c>
-      <c r="K19">
-        <v>132</v>
-      </c>
-      <c r="L19">
-        <v>242</v>
-      </c>
+      <c r="D45" s="1">
+        <v>21</v>
+      </c>
+      <c r="E45" s="1">
+        <v>94</v>
+      </c>
+      <c r="F45" s="1">
+        <v>526</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2110</v>
+      </c>
+      <c r="H45" s="1">
+        <v>4444</v>
+      </c>
+      <c r="I45" s="1">
+        <v>7780</v>
+      </c>
+      <c r="J45" s="1">
+        <v>34134</v>
+      </c>
+      <c r="K45" s="1">
+        <v>178518</v>
+      </c>
+      <c r="L45" s="5">
+        <v>614676</v>
+      </c>
+      <c r="M45" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>7</v>
-      </c>
-      <c r="G20">
-        <v>13</v>
-      </c>
-      <c r="H20">
-        <v>19</v>
-      </c>
-      <c r="I20">
-        <v>28</v>
-      </c>
-      <c r="J20">
-        <v>52</v>
-      </c>
-      <c r="K20">
-        <v>131</v>
-      </c>
-      <c r="L20">
-        <v>246</v>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="16">
+        <f>AVERAGE(C36:C45)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D46" s="16">
+        <f>AVERAGE(D36:D45)</f>
+        <v>22.5</v>
+      </c>
+      <c r="E46" s="16">
+        <f>AVERAGE(E36:E45)</f>
+        <v>92.6</v>
+      </c>
+      <c r="F46" s="16">
+        <f>AVERAGE(F36:F45)</f>
+        <v>539.29999999999995</v>
+      </c>
+      <c r="G46" s="16">
+        <f t="shared" ref="G46:L46" si="4">AVERAGE(G36:G45)</f>
+        <v>2091.6999999999998</v>
+      </c>
+      <c r="H46" s="16">
+        <f t="shared" si="4"/>
+        <v>4450.3999999999996</v>
+      </c>
+      <c r="I46" s="16">
+        <f t="shared" si="4"/>
+        <v>7818.6</v>
+      </c>
+      <c r="J46" s="16">
+        <f t="shared" si="4"/>
+        <v>31694.400000000001</v>
+      </c>
+      <c r="K46" s="16">
+        <f t="shared" si="4"/>
+        <v>179290.2</v>
+      </c>
+      <c r="L46" s="17">
+        <f t="shared" si="4"/>
+        <v>635048.4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>6</v>
-      </c>
-      <c r="G21">
-        <v>13</v>
-      </c>
-      <c r="H21">
-        <v>19</v>
-      </c>
-      <c r="I21">
-        <v>28</v>
-      </c>
-      <c r="J21">
-        <v>52</v>
-      </c>
-      <c r="K21">
-        <v>132</v>
-      </c>
-      <c r="L21">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>6</v>
-      </c>
-      <c r="G22">
-        <v>13</v>
-      </c>
-      <c r="H22">
-        <v>19</v>
-      </c>
-      <c r="I22">
-        <v>28</v>
-      </c>
-      <c r="J22">
-        <v>52</v>
-      </c>
-      <c r="K22">
-        <v>132</v>
-      </c>
-      <c r="L22">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>6</v>
-      </c>
-      <c r="G23">
-        <v>13</v>
-      </c>
-      <c r="H23">
-        <v>19</v>
-      </c>
-      <c r="I23">
-        <v>28</v>
-      </c>
-      <c r="J23">
-        <v>53</v>
-      </c>
-      <c r="K23">
-        <v>130</v>
-      </c>
-      <c r="L23">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>6</v>
-      </c>
-      <c r="G24">
-        <v>13</v>
-      </c>
-      <c r="H24">
-        <v>18</v>
-      </c>
-      <c r="I24">
-        <v>27</v>
-      </c>
-      <c r="J24">
-        <v>52</v>
-      </c>
-      <c r="K24">
-        <v>129</v>
-      </c>
-      <c r="L24">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>6</v>
-      </c>
-      <c r="G25">
-        <v>13</v>
-      </c>
-      <c r="H25">
-        <v>19</v>
-      </c>
-      <c r="I25">
-        <v>28</v>
-      </c>
-      <c r="J25">
-        <v>52</v>
-      </c>
-      <c r="K25">
-        <v>130</v>
-      </c>
-      <c r="L25">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>7</v>
-      </c>
-      <c r="G26">
-        <v>13</v>
-      </c>
-      <c r="H26">
-        <v>19</v>
-      </c>
-      <c r="I26">
-        <v>28</v>
-      </c>
-      <c r="J26">
-        <v>51</v>
-      </c>
-      <c r="K26">
-        <v>134</v>
-      </c>
-      <c r="L26">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>4</v>
-      </c>
-      <c r="F27" s="1">
-        <v>6</v>
-      </c>
-      <c r="G27" s="1">
-        <v>13</v>
-      </c>
-      <c r="H27" s="1">
-        <v>19</v>
-      </c>
-      <c r="I27" s="1">
-        <v>28</v>
-      </c>
-      <c r="J27" s="1">
-        <v>52</v>
-      </c>
-      <c r="K27" s="1">
-        <v>128</v>
-      </c>
-      <c r="L27" s="1">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3">
-        <f>AVERAGE(C18:C27)</f>
-        <v>0.2</v>
-      </c>
-      <c r="D28" s="3">
-        <f>AVERAGE(D18:D27)</f>
-        <v>1.7</v>
-      </c>
-      <c r="E28" s="3">
-        <f>AVERAGE(E18:E27)</f>
-        <v>3.2</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" ref="F28:L28" si="1">AVERAGE(F18:F27)</f>
-        <v>6.3</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" si="1"/>
-        <v>13.1</v>
-      </c>
-      <c r="H28" s="3">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="I28" s="3">
-        <f t="shared" si="1"/>
-        <v>27.9</v>
-      </c>
-      <c r="J28" s="3">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="K28" s="3">
-        <f t="shared" si="1"/>
-        <v>130.80000000000001</v>
-      </c>
-      <c r="L28" s="3">
-        <f t="shared" si="1"/>
-        <v>245.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>1000</v>
-      </c>
-      <c r="D31">
-        <v>5000</v>
-      </c>
-      <c r="E31">
-        <v>10000</v>
-      </c>
-      <c r="F31">
-        <v>25000</v>
-      </c>
-      <c r="G31">
-        <v>50000</v>
-      </c>
-      <c r="H31">
-        <v>75000</v>
-      </c>
-      <c r="I31">
-        <v>100000</v>
-      </c>
-      <c r="J31">
-        <v>200000</v>
-      </c>
-      <c r="K31">
-        <v>500000</v>
-      </c>
-      <c r="L31">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>22</v>
-      </c>
-      <c r="E32">
-        <v>87</v>
-      </c>
-      <c r="F32">
-        <v>556</v>
-      </c>
-      <c r="G32">
-        <v>2118</v>
-      </c>
-      <c r="H32">
-        <v>4459</v>
-      </c>
-      <c r="I32">
-        <v>7737</v>
-      </c>
-      <c r="J32">
-        <v>30720</v>
-      </c>
-      <c r="K32">
-        <v>179375</v>
-      </c>
-      <c r="L32">
-        <v>687846</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>22</v>
-      </c>
-      <c r="E33">
-        <v>89</v>
-      </c>
-      <c r="F33">
-        <v>564</v>
-      </c>
-      <c r="G33">
-        <v>2056</v>
-      </c>
-      <c r="H33">
-        <v>4453</v>
-      </c>
-      <c r="I33">
-        <v>7729</v>
-      </c>
-      <c r="J33">
-        <v>30366</v>
-      </c>
-      <c r="K33">
-        <v>183733</v>
-      </c>
-      <c r="L33">
-        <v>704175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>92</v>
-      </c>
-      <c r="F34">
-        <v>554</v>
-      </c>
-      <c r="G34">
-        <v>2088</v>
-      </c>
-      <c r="H34">
-        <v>4445</v>
-      </c>
-      <c r="I34">
-        <v>7736</v>
-      </c>
-      <c r="J34">
-        <v>30346</v>
-      </c>
-      <c r="K34">
-        <v>181597</v>
-      </c>
-      <c r="L34">
-        <v>654683</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>22</v>
-      </c>
-      <c r="E35">
-        <v>87</v>
-      </c>
-      <c r="F35">
-        <v>540</v>
-      </c>
-      <c r="G35">
-        <v>2137</v>
-      </c>
-      <c r="H35">
-        <v>4478</v>
-      </c>
-      <c r="I35">
-        <v>7730</v>
-      </c>
-      <c r="J35">
-        <v>30396</v>
-      </c>
-      <c r="K35">
-        <v>177733</v>
-      </c>
-      <c r="L35">
-        <v>622306</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>5</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>22</v>
-      </c>
-      <c r="E36">
-        <v>101</v>
-      </c>
-      <c r="F36">
-        <v>555</v>
-      </c>
-      <c r="G36">
-        <v>2082</v>
-      </c>
-      <c r="H36">
-        <v>4443</v>
-      </c>
-      <c r="I36">
-        <v>7758</v>
-      </c>
-      <c r="J36">
-        <v>34322</v>
-      </c>
-      <c r="K36">
-        <v>177403</v>
-      </c>
-      <c r="L36">
-        <v>617258</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>6</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>22</v>
-      </c>
-      <c r="E37">
-        <v>101</v>
-      </c>
-      <c r="F37">
-        <v>531</v>
-      </c>
-      <c r="G37">
-        <v>2100</v>
-      </c>
-      <c r="H37">
-        <v>4442</v>
-      </c>
-      <c r="I37">
-        <v>7742</v>
-      </c>
-      <c r="J37">
-        <v>31732</v>
-      </c>
-      <c r="K37">
-        <v>177527</v>
-      </c>
-      <c r="L37">
-        <v>605910</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>7</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>22</v>
-      </c>
-      <c r="E38">
-        <v>101</v>
-      </c>
-      <c r="F38">
-        <v>512</v>
-      </c>
-      <c r="G38">
-        <v>2018</v>
-      </c>
-      <c r="H38">
-        <v>4442</v>
-      </c>
-      <c r="I38">
-        <v>8107</v>
-      </c>
-      <c r="J38">
-        <v>30937</v>
-      </c>
-      <c r="K38">
-        <v>179711</v>
-      </c>
-      <c r="L38">
-        <v>603503</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>8</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>29</v>
-      </c>
-      <c r="E39">
-        <v>84</v>
-      </c>
-      <c r="F39">
-        <v>526</v>
-      </c>
-      <c r="G39">
-        <v>2160</v>
-      </c>
-      <c r="H39">
-        <v>4442</v>
-      </c>
-      <c r="I39">
-        <v>8137</v>
-      </c>
-      <c r="J39">
-        <v>31894</v>
-      </c>
-      <c r="K39">
-        <v>175928</v>
-      </c>
-      <c r="L39">
-        <v>616161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>9</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>21</v>
-      </c>
-      <c r="E40">
-        <v>90</v>
-      </c>
-      <c r="F40">
-        <v>529</v>
-      </c>
-      <c r="G40">
-        <v>2048</v>
-      </c>
-      <c r="H40">
-        <v>4456</v>
-      </c>
-      <c r="I40">
-        <v>7730</v>
-      </c>
-      <c r="J40">
-        <v>32097</v>
-      </c>
-      <c r="K40">
-        <v>181377</v>
-      </c>
-      <c r="L40">
-        <v>623966</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>10</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
-        <v>21</v>
-      </c>
-      <c r="E41" s="1">
-        <v>94</v>
-      </c>
-      <c r="F41" s="1">
-        <v>526</v>
-      </c>
-      <c r="G41" s="1">
-        <v>2110</v>
-      </c>
-      <c r="H41" s="1">
-        <v>4444</v>
-      </c>
-      <c r="I41" s="1">
-        <v>7780</v>
-      </c>
-      <c r="J41" s="1">
-        <v>34134</v>
-      </c>
-      <c r="K41" s="1">
-        <v>178518</v>
-      </c>
-      <c r="L41" s="1">
-        <v>614676</v>
-      </c>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="3">
-        <f>AVERAGE(C32:C41)</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D42" s="3">
-        <f>AVERAGE(D32:D41)</f>
-        <v>22.5</v>
-      </c>
-      <c r="E42" s="3">
-        <f>AVERAGE(E32:E41)</f>
-        <v>92.6</v>
-      </c>
-      <c r="F42" s="3">
-        <f>AVERAGE(F32:F41)</f>
-        <v>539.29999999999995</v>
-      </c>
-      <c r="G42" s="3">
-        <f t="shared" ref="G42:L42" si="2">AVERAGE(G32:G41)</f>
-        <v>2091.6999999999998</v>
-      </c>
-      <c r="H42" s="3">
-        <f t="shared" si="2"/>
-        <v>4450.3999999999996</v>
-      </c>
-      <c r="I42" s="3">
-        <f t="shared" si="2"/>
-        <v>7818.6</v>
-      </c>
-      <c r="J42" s="3">
-        <f t="shared" si="2"/>
-        <v>31694.400000000001</v>
-      </c>
-      <c r="K42" s="3">
-        <f t="shared" si="2"/>
-        <v>179290.2</v>
-      </c>
-      <c r="L42" s="3">
-        <f t="shared" si="2"/>
-        <v>635048.4</v>
+      <c r="C47" s="1">
+        <f>_xlfn.VAR.P(C36:C45)</f>
+        <v>0.09</v>
+      </c>
+      <c r="D47" s="1">
+        <f>_xlfn.VAR.P(D36:D45)</f>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" ref="E47:L47" si="5">_xlfn.VAR.P(E36:E45)</f>
+        <v>37.040000000000006</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="5"/>
+        <v>262.61</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="5"/>
+        <v>1653.61</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="5"/>
+        <v>121.03999999999999</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="5"/>
+        <v>23279.24</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="5"/>
+        <v>1985105.2399999998</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="5"/>
+        <v>5059474.76</v>
+      </c>
+      <c r="L47" s="5">
+        <f t="shared" si="5"/>
+        <v>1116920476.6399999</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B2:L2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA39256-3695-4672-B35F-390AEC96F2C8}">
-  <dimension ref="A3:L45"/>
+  <dimension ref="B2:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15722,361 +16155,373 @@
     <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="12">
+        <v>5000</v>
+      </c>
+      <c r="E3" s="12">
+        <v>10000</v>
+      </c>
+      <c r="F3" s="12">
+        <v>25000</v>
+      </c>
+      <c r="G3" s="12">
+        <v>50000</v>
+      </c>
+      <c r="H3" s="12">
+        <v>75000</v>
+      </c>
+      <c r="I3" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J3" s="12">
+        <v>200000</v>
+      </c>
+      <c r="K3" s="12">
+        <v>500000</v>
+      </c>
+      <c r="L3" s="13">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2">
+        <v>286</v>
+      </c>
+      <c r="E4" s="2">
+        <v>797</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3198</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9073</v>
+      </c>
+      <c r="H4" s="2">
+        <v>16551</v>
+      </c>
+      <c r="I4" s="2">
+        <v>25431</v>
+      </c>
+      <c r="J4" s="2">
+        <v>71812</v>
+      </c>
+      <c r="K4" s="2">
+        <v>270648</v>
+      </c>
+      <c r="L4" s="4">
+        <v>593995</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2">
+        <v>286</v>
+      </c>
+      <c r="E5" s="2">
+        <v>792</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3207</v>
+      </c>
+      <c r="G5" s="2">
+        <v>9073</v>
+      </c>
+      <c r="H5" s="2">
+        <v>16581</v>
+      </c>
+      <c r="I5" s="2">
+        <v>25458</v>
+      </c>
+      <c r="J5" s="2">
+        <v>71718</v>
+      </c>
+      <c r="K5" s="2">
+        <v>271640</v>
+      </c>
+      <c r="L5" s="4">
+        <v>564324</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2">
+        <v>285</v>
+      </c>
+      <c r="E6" s="2">
+        <v>791</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3210</v>
+      </c>
+      <c r="G6" s="2">
+        <v>9433</v>
+      </c>
+      <c r="H6" s="2">
+        <v>16600</v>
+      </c>
+      <c r="I6" s="2">
+        <v>25406</v>
+      </c>
+      <c r="J6" s="2">
+        <v>71438</v>
+      </c>
+      <c r="K6" s="2">
+        <v>270578</v>
+      </c>
+      <c r="L6" s="4">
+        <v>564093</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2">
+        <v>284</v>
+      </c>
+      <c r="E7" s="2">
+        <v>803</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3208</v>
+      </c>
+      <c r="G7" s="2">
+        <v>9058</v>
+      </c>
+      <c r="H7" s="2">
+        <v>16625</v>
+      </c>
+      <c r="I7" s="2">
+        <v>25406</v>
+      </c>
+      <c r="J7" s="2">
+        <v>71255</v>
+      </c>
+      <c r="K7" s="2">
+        <v>271959</v>
+      </c>
+      <c r="L7" s="4">
+        <v>564085</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2">
+        <v>284</v>
+      </c>
+      <c r="E8" s="2">
+        <v>785</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3213</v>
+      </c>
+      <c r="G8" s="2">
+        <v>9055</v>
+      </c>
+      <c r="H8" s="2">
+        <v>16580</v>
+      </c>
+      <c r="I8" s="2">
+        <v>25456</v>
+      </c>
+      <c r="J8" s="2">
+        <v>71291</v>
+      </c>
+      <c r="K8" s="2">
+        <v>274293</v>
+      </c>
+      <c r="L8" s="4">
+        <v>566495</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-      <c r="D3">
-        <v>5000</v>
-      </c>
-      <c r="E3">
-        <v>10000</v>
-      </c>
-      <c r="F3">
-        <v>25000</v>
-      </c>
-      <c r="G3">
-        <v>50000</v>
-      </c>
-      <c r="H3">
-        <v>75000</v>
-      </c>
-      <c r="I3">
-        <v>100000</v>
-      </c>
-      <c r="J3">
-        <v>200000</v>
-      </c>
-      <c r="K3">
-        <v>500000</v>
-      </c>
-      <c r="L3">
-        <v>1000000</v>
+      <c r="C9" s="2">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2">
+        <v>285</v>
+      </c>
+      <c r="E9" s="2">
+        <v>788</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3207</v>
+      </c>
+      <c r="G9" s="2">
+        <v>9052</v>
+      </c>
+      <c r="H9" s="2">
+        <v>16639</v>
+      </c>
+      <c r="I9" s="2">
+        <v>25427</v>
+      </c>
+      <c r="J9" s="2">
+        <v>71270</v>
+      </c>
+      <c r="K9" s="2">
+        <v>271519</v>
+      </c>
+      <c r="L9" s="4">
+        <v>564238</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
         <v>26</v>
       </c>
-      <c r="D4">
-        <v>286</v>
-      </c>
-      <c r="E4">
+      <c r="D10" s="2">
+        <v>282</v>
+      </c>
+      <c r="E10" s="2">
+        <v>786</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3209</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9057</v>
+      </c>
+      <c r="H10" s="2">
+        <v>16643</v>
+      </c>
+      <c r="I10" s="2">
+        <v>25410</v>
+      </c>
+      <c r="J10" s="2">
+        <v>71289</v>
+      </c>
+      <c r="K10" s="2">
+        <v>274918</v>
+      </c>
+      <c r="L10" s="4">
+        <v>566727</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2">
+        <v>284</v>
+      </c>
+      <c r="E11" s="2">
+        <v>806</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3205</v>
+      </c>
+      <c r="G11" s="2">
+        <v>9051</v>
+      </c>
+      <c r="H11" s="2">
+        <v>16643</v>
+      </c>
+      <c r="I11" s="2">
+        <v>25499</v>
+      </c>
+      <c r="J11" s="2">
+        <v>71461</v>
+      </c>
+      <c r="K11" s="2">
+        <v>272985</v>
+      </c>
+      <c r="L11" s="4">
+        <v>564814</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2">
+        <v>285</v>
+      </c>
+      <c r="E12" s="2">
         <v>797</v>
       </c>
-      <c r="F4">
-        <v>3198</v>
-      </c>
-      <c r="G4">
-        <v>9073</v>
-      </c>
-      <c r="H4">
-        <v>16551</v>
-      </c>
-      <c r="I4">
-        <v>25431</v>
-      </c>
-      <c r="J4">
-        <v>71812</v>
-      </c>
-      <c r="K4">
-        <v>270648</v>
-      </c>
-      <c r="L4">
-        <v>593995</v>
+      <c r="F12" s="2">
+        <v>3206</v>
+      </c>
+      <c r="G12" s="2">
+        <v>9056</v>
+      </c>
+      <c r="H12" s="2">
+        <v>16663</v>
+      </c>
+      <c r="I12" s="2">
+        <v>25405</v>
+      </c>
+      <c r="J12" s="2">
+        <v>73399</v>
+      </c>
+      <c r="K12" s="2">
+        <v>275078</v>
+      </c>
+      <c r="L12" s="4">
+        <v>564092</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>286</v>
-      </c>
-      <c r="E5">
-        <v>792</v>
-      </c>
-      <c r="F5">
-        <v>3207</v>
-      </c>
-      <c r="G5">
-        <v>9073</v>
-      </c>
-      <c r="H5">
-        <v>16581</v>
-      </c>
-      <c r="I5">
-        <v>25458</v>
-      </c>
-      <c r="J5">
-        <v>71718</v>
-      </c>
-      <c r="K5">
-        <v>271640</v>
-      </c>
-      <c r="L5">
-        <v>564324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>285</v>
-      </c>
-      <c r="E6">
-        <v>791</v>
-      </c>
-      <c r="F6">
-        <v>3210</v>
-      </c>
-      <c r="G6">
-        <v>9433</v>
-      </c>
-      <c r="H6">
-        <v>16600</v>
-      </c>
-      <c r="I6">
-        <v>25406</v>
-      </c>
-      <c r="J6">
-        <v>71438</v>
-      </c>
-      <c r="K6">
-        <v>270578</v>
-      </c>
-      <c r="L6">
-        <v>564093</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>26</v>
-      </c>
-      <c r="D7">
-        <v>284</v>
-      </c>
-      <c r="E7">
-        <v>803</v>
-      </c>
-      <c r="F7">
-        <v>3208</v>
-      </c>
-      <c r="G7">
-        <v>9058</v>
-      </c>
-      <c r="H7">
-        <v>16625</v>
-      </c>
-      <c r="I7">
-        <v>25406</v>
-      </c>
-      <c r="J7">
-        <v>71255</v>
-      </c>
-      <c r="K7">
-        <v>271959</v>
-      </c>
-      <c r="L7">
-        <v>564085</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>284</v>
-      </c>
-      <c r="E8">
-        <v>785</v>
-      </c>
-      <c r="F8">
-        <v>3213</v>
-      </c>
-      <c r="G8">
-        <v>9055</v>
-      </c>
-      <c r="H8">
-        <v>16580</v>
-      </c>
-      <c r="I8">
-        <v>25456</v>
-      </c>
-      <c r="J8">
-        <v>71291</v>
-      </c>
-      <c r="K8">
-        <v>274293</v>
-      </c>
-      <c r="L8">
-        <v>566495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>285</v>
-      </c>
-      <c r="E9">
-        <v>788</v>
-      </c>
-      <c r="F9">
-        <v>3207</v>
-      </c>
-      <c r="G9">
-        <v>9052</v>
-      </c>
-      <c r="H9">
-        <v>16639</v>
-      </c>
-      <c r="I9">
-        <v>25427</v>
-      </c>
-      <c r="J9">
-        <v>71270</v>
-      </c>
-      <c r="K9">
-        <v>271519</v>
-      </c>
-      <c r="L9">
-        <v>564238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>282</v>
-      </c>
-      <c r="E10">
-        <v>786</v>
-      </c>
-      <c r="F10">
-        <v>3209</v>
-      </c>
-      <c r="G10">
-        <v>9057</v>
-      </c>
-      <c r="H10">
-        <v>16643</v>
-      </c>
-      <c r="I10">
-        <v>25410</v>
-      </c>
-      <c r="J10">
-        <v>71289</v>
-      </c>
-      <c r="K10">
-        <v>274918</v>
-      </c>
-      <c r="L10">
-        <v>566727</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>284</v>
-      </c>
-      <c r="E11">
-        <v>806</v>
-      </c>
-      <c r="F11">
-        <v>3205</v>
-      </c>
-      <c r="G11">
-        <v>9051</v>
-      </c>
-      <c r="H11">
-        <v>16643</v>
-      </c>
-      <c r="I11">
-        <v>25499</v>
-      </c>
-      <c r="J11">
-        <v>71461</v>
-      </c>
-      <c r="K11">
-        <v>272985</v>
-      </c>
-      <c r="L11">
-        <v>564814</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>26</v>
-      </c>
-      <c r="D12">
-        <v>285</v>
-      </c>
-      <c r="E12">
-        <v>797</v>
-      </c>
-      <c r="F12">
-        <v>3206</v>
-      </c>
-      <c r="G12">
-        <v>9056</v>
-      </c>
-      <c r="H12">
-        <v>16663</v>
-      </c>
-      <c r="I12">
-        <v>25405</v>
-      </c>
-      <c r="J12">
-        <v>73399</v>
-      </c>
-      <c r="K12">
-        <v>275078</v>
-      </c>
-      <c r="L12">
-        <v>564092</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
         <v>10</v>
       </c>
       <c r="C13" s="1">
@@ -16106,1057 +16551,1098 @@
       <c r="K13" s="1">
         <v>271730</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="5">
         <v>564106</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="16">
         <f>AVERAGE(C4:C13)</f>
         <v>25.7</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="16">
         <f>AVERAGE(D4:D13)</f>
         <v>284.5</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="16">
         <f>AVERAGE(E4:E13)</f>
         <v>794.2</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="16">
         <f t="shared" ref="F14:L14" si="0">AVERAGE(F4:F13)</f>
         <v>3207.6</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="16">
         <f t="shared" si="0"/>
         <v>9096.5</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="16">
         <f t="shared" si="0"/>
         <v>16612.3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="16">
         <f t="shared" si="0"/>
         <v>25434.799999999999</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="16">
         <f t="shared" si="0"/>
         <v>71724</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="16">
         <f t="shared" si="0"/>
         <v>272534.8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="17">
         <f t="shared" si="0"/>
         <v>567696.9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="14">
         <f>_xlfn.VAR.P(C4:C13)</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="14">
         <f>_xlfn.VAR.P(D4:D13)</f>
         <v>1.25</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="14">
         <f t="shared" ref="E15:L15" si="1">_xlfn.VAR.P(E4:E13)</f>
         <v>44.56</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="14">
         <f t="shared" si="1"/>
         <v>16.84</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="14">
         <f t="shared" si="1"/>
         <v>12635.25</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="14">
         <f t="shared" si="1"/>
         <v>1146.6100000000001</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="14">
         <f t="shared" si="1"/>
         <v>857.76</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="14">
         <f t="shared" si="1"/>
         <v>410705</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="14">
         <f t="shared" si="1"/>
         <v>2564230.1599999997</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="15">
         <f t="shared" si="1"/>
         <v>77755067.289999992</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="12">
+        <v>5000</v>
+      </c>
+      <c r="E19" s="12">
+        <v>10000</v>
+      </c>
+      <c r="F19" s="12">
+        <v>25000</v>
+      </c>
+      <c r="G19" s="12">
+        <v>50000</v>
+      </c>
+      <c r="H19" s="12">
+        <v>75000</v>
+      </c>
+      <c r="I19" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J19" s="12">
+        <v>200000</v>
+      </c>
+      <c r="K19" s="12">
+        <v>500000</v>
+      </c>
+      <c r="L19" s="13">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
+      <c r="H20" s="2">
+        <v>12</v>
+      </c>
+      <c r="I20" s="2">
+        <v>16</v>
+      </c>
+      <c r="J20" s="2">
+        <v>34</v>
+      </c>
+      <c r="K20" s="2">
+        <v>102</v>
+      </c>
+      <c r="L20" s="4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="9">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
         <v>4</v>
       </c>
-      <c r="C18">
-        <v>1000</v>
-      </c>
-      <c r="D18">
-        <v>5000</v>
-      </c>
-      <c r="E18">
-        <v>10000</v>
-      </c>
-      <c r="F18">
-        <v>25000</v>
-      </c>
-      <c r="G18">
-        <v>50000</v>
-      </c>
-      <c r="H18">
-        <v>75000</v>
-      </c>
-      <c r="I18">
-        <v>100000</v>
-      </c>
-      <c r="J18">
-        <v>200000</v>
-      </c>
-      <c r="K18">
-        <v>500000</v>
-      </c>
-      <c r="L18">
-        <v>1000000</v>
+      <c r="G21" s="2">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2">
+        <v>13</v>
+      </c>
+      <c r="I21" s="2">
+        <v>17</v>
+      </c>
+      <c r="J21" s="2">
+        <v>33</v>
+      </c>
+      <c r="K21" s="2">
+        <v>107</v>
+      </c>
+      <c r="L21" s="4">
+        <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="C19">
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4</v>
+      </c>
+      <c r="G22" s="2">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2">
+        <v>16</v>
+      </c>
+      <c r="I22" s="2">
+        <v>23</v>
+      </c>
+      <c r="J22" s="2">
+        <v>33</v>
+      </c>
+      <c r="K22" s="2">
+        <v>90</v>
+      </c>
+      <c r="L22" s="4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="9">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2">
+        <v>15</v>
+      </c>
+      <c r="I23" s="2">
+        <v>23</v>
+      </c>
+      <c r="J23" s="2">
+        <v>35</v>
+      </c>
+      <c r="K23" s="2">
+        <v>85</v>
+      </c>
+      <c r="L23" s="4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="9">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
         <v>1</v>
       </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19">
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2">
+        <v>9</v>
+      </c>
+      <c r="H24" s="2">
+        <v>12</v>
+      </c>
+      <c r="I24" s="2">
+        <v>22</v>
+      </c>
+      <c r="J24" s="2">
+        <v>34</v>
+      </c>
+      <c r="K24" s="2">
+        <v>85</v>
+      </c>
+      <c r="L24" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="9">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2">
+        <v>10</v>
+      </c>
+      <c r="H25" s="2">
+        <v>14</v>
+      </c>
+      <c r="I25" s="2">
+        <v>18</v>
+      </c>
+      <c r="J25" s="2">
+        <v>33</v>
+      </c>
+      <c r="K25" s="2">
+        <v>86</v>
+      </c>
+      <c r="L25" s="4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="9">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>4</v>
+      </c>
+      <c r="G26" s="2">
+        <v>9</v>
+      </c>
+      <c r="H26" s="2">
+        <v>17</v>
+      </c>
+      <c r="I26" s="2">
+        <v>21</v>
+      </c>
+      <c r="J26" s="2">
+        <v>33</v>
+      </c>
+      <c r="K26" s="2">
+        <v>85</v>
+      </c>
+      <c r="L26" s="4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="9">
         <v>8</v>
       </c>
-      <c r="H19">
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4</v>
+      </c>
+      <c r="G27" s="2">
+        <v>8</v>
+      </c>
+      <c r="H27" s="2">
+        <v>14</v>
+      </c>
+      <c r="I27" s="2">
+        <v>22</v>
+      </c>
+      <c r="J27" s="2">
+        <v>33</v>
+      </c>
+      <c r="K27" s="2">
+        <v>85</v>
+      </c>
+      <c r="L27" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="9">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>4</v>
+      </c>
+      <c r="G28" s="2">
         <v>12</v>
       </c>
-      <c r="I19">
+      <c r="H28" s="2">
+        <v>17</v>
+      </c>
+      <c r="I28" s="2">
         <v>16</v>
       </c>
-      <c r="J19">
-        <v>34</v>
-      </c>
-      <c r="K19">
-        <v>102</v>
-      </c>
-      <c r="L19">
-        <v>219</v>
+      <c r="J28" s="2">
+        <v>33</v>
+      </c>
+      <c r="K28" s="2">
+        <v>85</v>
+      </c>
+      <c r="L28" s="4">
+        <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B20">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="9">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
         <v>2</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
+      <c r="F29" s="1">
         <v>4</v>
       </c>
-      <c r="G20">
-        <v>8</v>
-      </c>
-      <c r="H20">
-        <v>13</v>
-      </c>
-      <c r="I20">
-        <v>17</v>
-      </c>
-      <c r="J20">
+      <c r="G29" s="1">
+        <v>11</v>
+      </c>
+      <c r="H29" s="1">
+        <v>16</v>
+      </c>
+      <c r="I29" s="1">
+        <v>16</v>
+      </c>
+      <c r="J29" s="1">
         <v>33</v>
       </c>
-      <c r="K20">
-        <v>107</v>
-      </c>
-      <c r="L20">
-        <v>180</v>
+      <c r="K29" s="1">
+        <v>85</v>
+      </c>
+      <c r="L29" s="5">
+        <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G21">
-        <v>8</v>
-      </c>
-      <c r="H21">
-        <v>16</v>
-      </c>
-      <c r="I21">
-        <v>23</v>
-      </c>
-      <c r="J21">
-        <v>33</v>
-      </c>
-      <c r="K21">
-        <v>90</v>
-      </c>
-      <c r="L21">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22">
-        <v>8</v>
-      </c>
-      <c r="H22">
-        <v>15</v>
-      </c>
-      <c r="I22">
-        <v>23</v>
-      </c>
-      <c r="J22">
-        <v>35</v>
-      </c>
-      <c r="K22">
-        <v>85</v>
-      </c>
-      <c r="L22">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23">
-        <v>9</v>
-      </c>
-      <c r="H23">
-        <v>12</v>
-      </c>
-      <c r="I23">
-        <v>22</v>
-      </c>
-      <c r="J23">
-        <v>34</v>
-      </c>
-      <c r="K23">
-        <v>85</v>
-      </c>
-      <c r="L23">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-      <c r="G24">
-        <v>10</v>
-      </c>
-      <c r="H24">
-        <v>14</v>
-      </c>
-      <c r="I24">
-        <v>18</v>
-      </c>
-      <c r="J24">
-        <v>33</v>
-      </c>
-      <c r="K24">
-        <v>86</v>
-      </c>
-      <c r="L24">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <v>9</v>
-      </c>
-      <c r="H25">
-        <v>17</v>
-      </c>
-      <c r="I25">
-        <v>21</v>
-      </c>
-      <c r="J25">
-        <v>33</v>
-      </c>
-      <c r="K25">
-        <v>85</v>
-      </c>
-      <c r="L25">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-      <c r="G26">
-        <v>8</v>
-      </c>
-      <c r="H26">
-        <v>14</v>
-      </c>
-      <c r="I26">
-        <v>22</v>
-      </c>
-      <c r="J26">
-        <v>33</v>
-      </c>
-      <c r="K26">
-        <v>85</v>
-      </c>
-      <c r="L26">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>9</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-      <c r="G27">
-        <v>12</v>
-      </c>
-      <c r="H27">
-        <v>17</v>
-      </c>
-      <c r="I27">
-        <v>16</v>
-      </c>
-      <c r="J27">
-        <v>33</v>
-      </c>
-      <c r="K27">
-        <v>85</v>
-      </c>
-      <c r="L27">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1">
-        <v>4</v>
-      </c>
-      <c r="G28" s="1">
-        <v>11</v>
-      </c>
-      <c r="H28" s="1">
-        <v>16</v>
-      </c>
-      <c r="I28" s="1">
-        <v>16</v>
-      </c>
-      <c r="J28" s="1">
-        <v>33</v>
-      </c>
-      <c r="K28" s="1">
-        <v>85</v>
-      </c>
-      <c r="L28" s="1">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C19:C28)</f>
+      <c r="C30" s="16">
+        <f>AVERAGE(C20:C29)</f>
         <v>0.1</v>
       </c>
-      <c r="D29" s="3">
-        <f>AVERAGE(D19:D28)</f>
+      <c r="D30" s="16">
+        <f>AVERAGE(D20:D29)</f>
         <v>0.8</v>
       </c>
-      <c r="E29" s="3">
-        <f>AVERAGE(E19:E28)</f>
+      <c r="E30" s="16">
+        <f>AVERAGE(E20:E29)</f>
         <v>1.6</v>
       </c>
-      <c r="F29" s="3">
-        <f t="shared" ref="F29:L29" si="2">AVERAGE(F19:F28)</f>
+      <c r="F30" s="16">
+        <f t="shared" ref="F30:L30" si="2">AVERAGE(F20:F29)</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G30" s="16">
         <f t="shared" si="2"/>
         <v>9.1</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H30" s="16">
         <f t="shared" si="2"/>
         <v>14.6</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I30" s="16">
         <f t="shared" si="2"/>
         <v>19.399999999999999</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J30" s="16">
         <f t="shared" si="2"/>
         <v>33.4</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K30" s="16">
         <f t="shared" si="2"/>
         <v>89.5</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L30" s="17">
         <f t="shared" si="2"/>
         <v>187.1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="3">
-        <f>_xlfn.VAR.P(C19:C28)</f>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="14">
+        <f>_xlfn.VAR.P(C20:C29)</f>
         <v>0.09</v>
       </c>
-      <c r="D30" s="3">
-        <f>_xlfn.VAR.P(D19:D28)</f>
+      <c r="D31" s="14">
+        <f>_xlfn.VAR.P(D20:D29)</f>
         <v>0.16</v>
       </c>
-      <c r="E30" s="3">
-        <f t="shared" ref="E30:L30" si="3">_xlfn.VAR.P(E19:E28)</f>
+      <c r="E31" s="14">
+        <f t="shared" ref="E31:L31" si="3">_xlfn.VAR.P(E20:E29)</f>
         <v>0.24</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F31" s="14">
         <f t="shared" si="3"/>
         <v>8.9999999999999969E-2</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G31" s="14">
         <f t="shared" si="3"/>
         <v>1.89</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H31" s="14">
         <f t="shared" si="3"/>
         <v>3.24</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I31" s="14">
         <f t="shared" si="3"/>
         <v>8.44</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J31" s="14">
         <f t="shared" si="3"/>
         <v>0.44000000000000006</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K31" s="14">
         <f t="shared" si="3"/>
         <v>59.65</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L31" s="15">
         <f t="shared" si="3"/>
         <v>130.49</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="12">
+        <v>5000</v>
+      </c>
+      <c r="E35" s="12">
+        <v>10000</v>
+      </c>
+      <c r="F35" s="12">
+        <v>25000</v>
+      </c>
+      <c r="G35" s="12">
+        <v>50000</v>
+      </c>
+      <c r="H35" s="12">
+        <v>75000</v>
+      </c>
+      <c r="I35" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J35" s="12">
+        <v>200000</v>
+      </c>
+      <c r="K35" s="12">
+        <v>500000</v>
+      </c>
+      <c r="L35" s="13">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="9">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>18</v>
+      </c>
+      <c r="E36" s="2">
+        <v>78</v>
+      </c>
+      <c r="F36" s="2">
+        <v>513</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1949</v>
+      </c>
+      <c r="H36" s="2">
+        <v>3953</v>
+      </c>
+      <c r="I36" s="2">
+        <v>6979</v>
+      </c>
+      <c r="J36" s="2">
+        <v>27301</v>
+      </c>
+      <c r="K36" s="2">
+        <v>185474</v>
+      </c>
+      <c r="L36" s="4">
+        <v>731112</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="9">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>18</v>
+      </c>
+      <c r="E37" s="2">
+        <v>99</v>
+      </c>
+      <c r="F37" s="2">
+        <v>540</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1659</v>
+      </c>
+      <c r="H37" s="2">
+        <v>3702</v>
+      </c>
+      <c r="I37" s="2">
+        <v>6926</v>
+      </c>
+      <c r="J37" s="2">
+        <v>28434</v>
+      </c>
+      <c r="K37" s="2">
+        <v>192066</v>
+      </c>
+      <c r="L37" s="4">
+        <v>734554</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="9">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>19</v>
+      </c>
+      <c r="E38" s="2">
+        <v>103</v>
+      </c>
+      <c r="F38" s="2">
+        <v>481</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1680</v>
+      </c>
+      <c r="H38" s="2">
+        <v>3639</v>
+      </c>
+      <c r="I38" s="2">
+        <v>6815</v>
+      </c>
+      <c r="J38" s="2">
+        <v>26853</v>
+      </c>
+      <c r="K38" s="2">
+        <v>172465</v>
+      </c>
+      <c r="L38" s="4">
+        <v>738494</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="9">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>30</v>
+      </c>
+      <c r="E39" s="2">
+        <v>82</v>
+      </c>
+      <c r="F39" s="2">
+        <v>413</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1682</v>
+      </c>
+      <c r="H39" s="2">
+        <v>3653</v>
+      </c>
+      <c r="I39" s="2">
+        <v>6761</v>
+      </c>
+      <c r="J39" s="2">
+        <v>26476</v>
+      </c>
+      <c r="K39" s="2">
+        <v>172697</v>
+      </c>
+      <c r="L39" s="4">
+        <v>766781</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="9">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>27</v>
+      </c>
+      <c r="E40" s="2">
+        <v>97</v>
+      </c>
+      <c r="F40" s="2">
+        <v>441</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1711</v>
+      </c>
+      <c r="H40" s="2">
+        <v>3772</v>
+      </c>
+      <c r="I40" s="2">
+        <v>6787</v>
+      </c>
+      <c r="J40" s="2">
+        <v>26998</v>
+      </c>
+      <c r="K40" s="2">
+        <v>176790</v>
+      </c>
+      <c r="L40" s="4">
+        <v>740781</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="9">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>25</v>
+      </c>
+      <c r="E41" s="2">
+        <v>87</v>
+      </c>
+      <c r="F41" s="2">
+        <v>476</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1692</v>
+      </c>
+      <c r="H41" s="2">
+        <v>3787</v>
+      </c>
+      <c r="I41" s="2">
+        <v>6616</v>
+      </c>
+      <c r="J41" s="2">
+        <v>26880</v>
+      </c>
+      <c r="K41" s="2">
+        <v>173146</v>
+      </c>
+      <c r="L41" s="4">
+        <v>744832</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="9">
         <v>7</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>28</v>
+      </c>
+      <c r="E42" s="2">
+        <v>82</v>
+      </c>
+      <c r="F42" s="2">
+        <v>439</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1679</v>
+      </c>
+      <c r="H42" s="2">
+        <v>3766</v>
+      </c>
+      <c r="I42" s="2">
+        <v>6652</v>
+      </c>
+      <c r="J42" s="2">
+        <v>26601</v>
+      </c>
+      <c r="K42" s="2">
+        <v>174392</v>
+      </c>
+      <c r="L42" s="4">
+        <v>748824</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="9">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>25</v>
+      </c>
+      <c r="E43" s="2">
+        <v>83</v>
+      </c>
+      <c r="F43" s="2">
+        <v>443</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1684</v>
+      </c>
+      <c r="H43" s="2">
+        <v>3639</v>
+      </c>
+      <c r="I43" s="2">
+        <v>6772</v>
+      </c>
+      <c r="J43" s="2">
+        <v>28396</v>
+      </c>
+      <c r="K43" s="2">
+        <v>174975</v>
+      </c>
+      <c r="L43" s="4">
+        <v>748654</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="9">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>18</v>
+      </c>
+      <c r="E44" s="2">
+        <v>66</v>
+      </c>
+      <c r="F44" s="2">
+        <v>449</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1771</v>
+      </c>
+      <c r="H44" s="2">
+        <v>3648</v>
+      </c>
+      <c r="I44" s="2">
+        <v>6595</v>
+      </c>
+      <c r="J44" s="2">
+        <v>27619</v>
+      </c>
+      <c r="K44" s="2">
+        <v>177023</v>
+      </c>
+      <c r="L44" s="4">
+        <v>749009</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="9">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>18</v>
+      </c>
+      <c r="E45" s="1">
+        <v>67</v>
+      </c>
+      <c r="F45" s="1">
+        <v>434</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1684</v>
+      </c>
+      <c r="H45" s="1">
+        <v>3672</v>
+      </c>
+      <c r="I45" s="1">
+        <v>6733</v>
+      </c>
+      <c r="J45" s="1">
+        <v>27387</v>
+      </c>
+      <c r="K45" s="1">
+        <v>194808</v>
+      </c>
+      <c r="L45" s="5">
+        <v>748340</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C33">
-        <v>1000</v>
-      </c>
-      <c r="D33">
-        <v>5000</v>
-      </c>
-      <c r="E33">
-        <v>10000</v>
-      </c>
-      <c r="F33">
-        <v>25000</v>
-      </c>
-      <c r="G33">
-        <v>50000</v>
-      </c>
-      <c r="H33">
-        <v>75000</v>
-      </c>
-      <c r="I33">
-        <v>100000</v>
-      </c>
-      <c r="J33">
-        <v>200000</v>
-      </c>
-      <c r="K33">
-        <v>500000</v>
-      </c>
-      <c r="L33">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34">
+      <c r="C46" s="16">
+        <f>AVERAGE(C36:C45)</f>
         <v>1</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>18</v>
-      </c>
-      <c r="E34">
-        <v>78</v>
-      </c>
-      <c r="F34">
-        <v>513</v>
-      </c>
-      <c r="G34">
-        <v>1949</v>
-      </c>
-      <c r="H34">
-        <v>3953</v>
-      </c>
-      <c r="I34">
-        <v>6979</v>
-      </c>
-      <c r="J34">
-        <v>27301</v>
-      </c>
-      <c r="K34">
-        <v>185474</v>
-      </c>
-      <c r="L34">
-        <v>731112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>18</v>
-      </c>
-      <c r="E35">
-        <v>99</v>
-      </c>
-      <c r="F35">
-        <v>540</v>
-      </c>
-      <c r="G35">
-        <v>1659</v>
-      </c>
-      <c r="H35">
-        <v>3702</v>
-      </c>
-      <c r="I35">
-        <v>6926</v>
-      </c>
-      <c r="J35">
-        <v>28434</v>
-      </c>
-      <c r="K35">
-        <v>192066</v>
-      </c>
-      <c r="L35">
-        <v>734554</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>19</v>
-      </c>
-      <c r="E36">
-        <v>103</v>
-      </c>
-      <c r="F36">
-        <v>481</v>
-      </c>
-      <c r="G36">
-        <v>1680</v>
-      </c>
-      <c r="H36">
-        <v>3639</v>
-      </c>
-      <c r="I36">
-        <v>6815</v>
-      </c>
-      <c r="J36">
-        <v>26853</v>
-      </c>
-      <c r="K36">
-        <v>172465</v>
-      </c>
-      <c r="L36">
-        <v>738494</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>30</v>
-      </c>
-      <c r="E37">
-        <v>82</v>
-      </c>
-      <c r="F37">
-        <v>413</v>
-      </c>
-      <c r="G37">
-        <v>1682</v>
-      </c>
-      <c r="H37">
-        <v>3653</v>
-      </c>
-      <c r="I37">
-        <v>6761</v>
-      </c>
-      <c r="J37">
-        <v>26476</v>
-      </c>
-      <c r="K37">
-        <v>172697</v>
-      </c>
-      <c r="L37">
-        <v>766781</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>5</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>27</v>
-      </c>
-      <c r="E38">
-        <v>97</v>
-      </c>
-      <c r="F38">
-        <v>441</v>
-      </c>
-      <c r="G38">
-        <v>1711</v>
-      </c>
-      <c r="H38">
-        <v>3772</v>
-      </c>
-      <c r="I38">
-        <v>6787</v>
-      </c>
-      <c r="J38">
-        <v>26998</v>
-      </c>
-      <c r="K38">
-        <v>176790</v>
-      </c>
-      <c r="L38">
-        <v>740781</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>6</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>25</v>
-      </c>
-      <c r="E39">
-        <v>87</v>
-      </c>
-      <c r="F39">
-        <v>476</v>
-      </c>
-      <c r="G39">
-        <v>1692</v>
-      </c>
-      <c r="H39">
-        <v>3787</v>
-      </c>
-      <c r="I39">
-        <v>6616</v>
-      </c>
-      <c r="J39">
-        <v>26880</v>
-      </c>
-      <c r="K39">
-        <v>173146</v>
-      </c>
-      <c r="L39">
-        <v>744832</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>7</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>28</v>
-      </c>
-      <c r="E40">
-        <v>82</v>
-      </c>
-      <c r="F40">
-        <v>439</v>
-      </c>
-      <c r="G40">
-        <v>1679</v>
-      </c>
-      <c r="H40">
-        <v>3766</v>
-      </c>
-      <c r="I40">
-        <v>6652</v>
-      </c>
-      <c r="J40">
-        <v>26601</v>
-      </c>
-      <c r="K40">
-        <v>174392</v>
-      </c>
-      <c r="L40">
-        <v>748824</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>8</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>25</v>
-      </c>
-      <c r="E41">
-        <v>83</v>
-      </c>
-      <c r="F41">
-        <v>443</v>
-      </c>
-      <c r="G41">
-        <v>1684</v>
-      </c>
-      <c r="H41">
-        <v>3639</v>
-      </c>
-      <c r="I41">
-        <v>6772</v>
-      </c>
-      <c r="J41">
-        <v>28396</v>
-      </c>
-      <c r="K41">
-        <v>174975</v>
-      </c>
-      <c r="L41">
-        <v>748654</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>9</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>18</v>
-      </c>
-      <c r="E42">
-        <v>66</v>
-      </c>
-      <c r="F42">
-        <v>449</v>
-      </c>
-      <c r="G42">
-        <v>1771</v>
-      </c>
-      <c r="H42">
-        <v>3648</v>
-      </c>
-      <c r="I42">
-        <v>6595</v>
-      </c>
-      <c r="J42">
-        <v>27619</v>
-      </c>
-      <c r="K42">
-        <v>177023</v>
-      </c>
-      <c r="L42">
-        <v>749009</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>10</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
-        <v>18</v>
-      </c>
-      <c r="E43" s="1">
-        <v>67</v>
-      </c>
-      <c r="F43" s="1">
-        <v>434</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1684</v>
-      </c>
-      <c r="H43" s="1">
-        <v>3672</v>
-      </c>
-      <c r="I43" s="1">
-        <v>6733</v>
-      </c>
-      <c r="J43" s="1">
-        <v>27387</v>
-      </c>
-      <c r="K43" s="1">
-        <v>194808</v>
-      </c>
-      <c r="L43" s="1">
-        <v>748340</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="3">
-        <f>AVERAGE(C34:C43)</f>
-        <v>1</v>
-      </c>
-      <c r="D44" s="3">
-        <f>AVERAGE(D34:D43)</f>
+      <c r="D46" s="16">
+        <f>AVERAGE(D36:D45)</f>
         <v>22.6</v>
       </c>
-      <c r="E44" s="3">
-        <f>AVERAGE(E34:E43)</f>
+      <c r="E46" s="16">
+        <f>AVERAGE(E36:E45)</f>
         <v>84.4</v>
       </c>
-      <c r="F44" s="3">
-        <f t="shared" ref="F44:L44" si="4">AVERAGE(F34:F43)</f>
+      <c r="F46" s="16">
+        <f t="shared" ref="F46:L46" si="4">AVERAGE(F36:F45)</f>
         <v>462.9</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G46" s="16">
         <f t="shared" si="4"/>
         <v>1719.1</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H46" s="16">
         <f t="shared" si="4"/>
         <v>3723.1</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I46" s="16">
         <f t="shared" si="4"/>
         <v>6763.6</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J46" s="16">
         <f t="shared" si="4"/>
         <v>27294.5</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K46" s="16">
         <f t="shared" si="4"/>
         <v>179383.6</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L46" s="17">
         <f t="shared" si="4"/>
         <v>745138.1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45">
-        <f>_xlfn.VAR.P(C34:C43)</f>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1">
+        <f>_xlfn.VAR.P(C36:C45)</f>
         <v>0</v>
       </c>
-      <c r="D45">
-        <f>_xlfn.VAR.P(D34:D43)</f>
+      <c r="D47" s="1">
+        <f>_xlfn.VAR.P(D36:D45)</f>
         <v>21.24</v>
       </c>
-      <c r="E45">
-        <f t="shared" ref="E45:K45" si="5">_xlfn.VAR.P(E34:E43)</f>
+      <c r="E47" s="1">
+        <f t="shared" ref="E47:K47" si="5">_xlfn.VAR.P(E36:E45)</f>
         <v>142.04</v>
       </c>
-      <c r="F45">
+      <c r="F47" s="1">
         <f t="shared" si="5"/>
         <v>1391.8899999999999</v>
       </c>
-      <c r="G45">
+      <c r="G47" s="1">
         <f t="shared" si="5"/>
         <v>6693.6900000000005</v>
       </c>
-      <c r="H45">
+      <c r="H47" s="1">
         <f t="shared" si="5"/>
         <v>8892.489999999998</v>
       </c>
-      <c r="I45">
+      <c r="I47" s="1">
         <f t="shared" si="5"/>
         <v>13964.039999999999</v>
       </c>
-      <c r="J45">
+      <c r="J47" s="1">
         <f t="shared" si="5"/>
         <v>423119.05</v>
       </c>
-      <c r="K45">
+      <c r="K47" s="1">
         <f t="shared" si="5"/>
         <v>62398467.439999998</v>
       </c>
-      <c r="L45">
-        <f>_xlfn.VAR.P(L34:L43)</f>
+      <c r="L47" s="5">
+        <f>_xlfn.VAR.P(L36:L45)</f>
         <v>89157529.890000015</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B34:L34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -17165,10 +17651,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CA9B0B-6E4A-4DC5-8A5C-4BD9F8C6BE37}">
-  <dimension ref="A3:L45"/>
+  <dimension ref="B2:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17178,361 +17664,373 @@
     <col min="12" max="12" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="12">
+        <v>5000</v>
+      </c>
+      <c r="E3" s="12">
+        <v>10000</v>
+      </c>
+      <c r="F3" s="12">
+        <v>25000</v>
+      </c>
+      <c r="G3" s="12">
+        <v>50000</v>
+      </c>
+      <c r="H3" s="12">
+        <v>75000</v>
+      </c>
+      <c r="I3" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J3" s="12">
+        <v>200000</v>
+      </c>
+      <c r="K3" s="12">
+        <v>500000</v>
+      </c>
+      <c r="L3" s="13">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2">
+        <v>457</v>
+      </c>
+      <c r="E4" s="2">
+        <v>877</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2364</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4831</v>
+      </c>
+      <c r="H4" s="2">
+        <v>7246</v>
+      </c>
+      <c r="I4" s="2">
+        <v>9863</v>
+      </c>
+      <c r="J4" s="2">
+        <v>19390</v>
+      </c>
+      <c r="K4" s="2">
+        <v>48898</v>
+      </c>
+      <c r="L4" s="4">
+        <v>74013</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2">
+        <v>453</v>
+      </c>
+      <c r="E5" s="2">
+        <v>869</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2358</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4874</v>
+      </c>
+      <c r="H5" s="2">
+        <v>7266</v>
+      </c>
+      <c r="I5" s="2">
+        <v>9711</v>
+      </c>
+      <c r="J5" s="2">
+        <v>19396</v>
+      </c>
+      <c r="K5" s="2">
+        <v>48524</v>
+      </c>
+      <c r="L5" s="4">
+        <v>73567</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2">
+        <v>453</v>
+      </c>
+      <c r="E6" s="2">
+        <v>869</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2395</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4842</v>
+      </c>
+      <c r="H6" s="2">
+        <v>7266</v>
+      </c>
+      <c r="I6" s="2">
+        <v>9692</v>
+      </c>
+      <c r="J6" s="2">
+        <v>19395</v>
+      </c>
+      <c r="K6" s="2">
+        <v>48528</v>
+      </c>
+      <c r="L6" s="4">
+        <v>74027</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2">
+        <v>434</v>
+      </c>
+      <c r="E7" s="2">
+        <v>868</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2386</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4842</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7263</v>
+      </c>
+      <c r="I7" s="2">
+        <v>9746</v>
+      </c>
+      <c r="J7" s="2">
+        <v>19386</v>
+      </c>
+      <c r="K7" s="2">
+        <v>48678</v>
+      </c>
+      <c r="L7" s="4">
+        <v>73084</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2">
+        <v>434</v>
+      </c>
+      <c r="E8" s="2">
+        <v>869</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2382</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4843</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7264</v>
+      </c>
+      <c r="I8" s="2">
+        <v>9695</v>
+      </c>
+      <c r="J8" s="2">
+        <v>19380</v>
+      </c>
+      <c r="K8" s="2">
+        <v>48632</v>
+      </c>
+      <c r="L8" s="4">
+        <v>73563</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-      <c r="D3">
-        <v>5000</v>
-      </c>
-      <c r="E3">
-        <v>10000</v>
-      </c>
-      <c r="F3">
-        <v>25000</v>
-      </c>
-      <c r="G3">
-        <v>50000</v>
-      </c>
-      <c r="H3">
-        <v>75000</v>
-      </c>
-      <c r="I3">
-        <v>100000</v>
-      </c>
-      <c r="J3">
-        <v>200000</v>
-      </c>
-      <c r="K3">
-        <v>500000</v>
-      </c>
-      <c r="L3">
-        <v>1000000</v>
+      <c r="C9" s="2">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2">
+        <v>436</v>
+      </c>
+      <c r="E9" s="2">
+        <v>870</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2380</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4846</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7259</v>
+      </c>
+      <c r="I9" s="2">
+        <v>9785</v>
+      </c>
+      <c r="J9" s="2">
+        <v>19379</v>
+      </c>
+      <c r="K9" s="2">
+        <v>49459</v>
+      </c>
+      <c r="L9" s="4">
+        <v>73090</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
         <v>45</v>
       </c>
-      <c r="D4">
-        <v>457</v>
-      </c>
-      <c r="E4">
+      <c r="D10" s="2">
+        <v>433</v>
+      </c>
+      <c r="E10" s="2">
+        <v>892</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2384</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4847</v>
+      </c>
+      <c r="H10" s="2">
+        <v>7265</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9737</v>
+      </c>
+      <c r="J10" s="2">
+        <v>19385</v>
+      </c>
+      <c r="K10" s="2">
+        <v>48603</v>
+      </c>
+      <c r="L10" s="4">
+        <v>72937</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2">
+        <v>433</v>
+      </c>
+      <c r="E11" s="2">
+        <v>879</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2396</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4842</v>
+      </c>
+      <c r="H11" s="2">
+        <v>7263</v>
+      </c>
+      <c r="I11" s="2">
+        <v>9697</v>
+      </c>
+      <c r="J11" s="2">
+        <v>23871</v>
+      </c>
+      <c r="K11" s="2">
+        <v>48619</v>
+      </c>
+      <c r="L11" s="4">
+        <v>72942</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2">
+        <v>441</v>
+      </c>
+      <c r="E12" s="2">
         <v>877</v>
       </c>
-      <c r="F4">
-        <v>2364</v>
-      </c>
-      <c r="G4">
-        <v>4831</v>
-      </c>
-      <c r="H4">
-        <v>7246</v>
-      </c>
-      <c r="I4">
-        <v>9863</v>
-      </c>
-      <c r="J4">
-        <v>19390</v>
-      </c>
-      <c r="K4">
-        <v>48898</v>
-      </c>
-      <c r="L4">
-        <v>74013</v>
+      <c r="F12" s="2">
+        <v>2391</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4844</v>
+      </c>
+      <c r="H12" s="2">
+        <v>7275</v>
+      </c>
+      <c r="I12" s="2">
+        <v>9682</v>
+      </c>
+      <c r="J12" s="2">
+        <v>19816</v>
+      </c>
+      <c r="K12" s="2">
+        <v>48553</v>
+      </c>
+      <c r="L12" s="4">
+        <v>72797</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>45</v>
-      </c>
-      <c r="D5">
-        <v>453</v>
-      </c>
-      <c r="E5">
-        <v>869</v>
-      </c>
-      <c r="F5">
-        <v>2358</v>
-      </c>
-      <c r="G5">
-        <v>4874</v>
-      </c>
-      <c r="H5">
-        <v>7266</v>
-      </c>
-      <c r="I5">
-        <v>9711</v>
-      </c>
-      <c r="J5">
-        <v>19396</v>
-      </c>
-      <c r="K5">
-        <v>48524</v>
-      </c>
-      <c r="L5">
-        <v>73567</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>45</v>
-      </c>
-      <c r="D6">
-        <v>453</v>
-      </c>
-      <c r="E6">
-        <v>869</v>
-      </c>
-      <c r="F6">
-        <v>2395</v>
-      </c>
-      <c r="G6">
-        <v>4842</v>
-      </c>
-      <c r="H6">
-        <v>7266</v>
-      </c>
-      <c r="I6">
-        <v>9692</v>
-      </c>
-      <c r="J6">
-        <v>19395</v>
-      </c>
-      <c r="K6">
-        <v>48528</v>
-      </c>
-      <c r="L6">
-        <v>74027</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>44</v>
-      </c>
-      <c r="D7">
-        <v>434</v>
-      </c>
-      <c r="E7">
-        <v>868</v>
-      </c>
-      <c r="F7">
-        <v>2386</v>
-      </c>
-      <c r="G7">
-        <v>4842</v>
-      </c>
-      <c r="H7">
-        <v>7263</v>
-      </c>
-      <c r="I7">
-        <v>9746</v>
-      </c>
-      <c r="J7">
-        <v>19386</v>
-      </c>
-      <c r="K7">
-        <v>48678</v>
-      </c>
-      <c r="L7">
-        <v>73084</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>45</v>
-      </c>
-      <c r="D8">
-        <v>434</v>
-      </c>
-      <c r="E8">
-        <v>869</v>
-      </c>
-      <c r="F8">
-        <v>2382</v>
-      </c>
-      <c r="G8">
-        <v>4843</v>
-      </c>
-      <c r="H8">
-        <v>7264</v>
-      </c>
-      <c r="I8">
-        <v>9695</v>
-      </c>
-      <c r="J8">
-        <v>19380</v>
-      </c>
-      <c r="K8">
-        <v>48632</v>
-      </c>
-      <c r="L8">
-        <v>73563</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>44</v>
-      </c>
-      <c r="D9">
-        <v>436</v>
-      </c>
-      <c r="E9">
-        <v>870</v>
-      </c>
-      <c r="F9">
-        <v>2380</v>
-      </c>
-      <c r="G9">
-        <v>4846</v>
-      </c>
-      <c r="H9">
-        <v>7259</v>
-      </c>
-      <c r="I9">
-        <v>9785</v>
-      </c>
-      <c r="J9">
-        <v>19379</v>
-      </c>
-      <c r="K9">
-        <v>49459</v>
-      </c>
-      <c r="L9">
-        <v>73090</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>45</v>
-      </c>
-      <c r="D10">
-        <v>433</v>
-      </c>
-      <c r="E10">
-        <v>892</v>
-      </c>
-      <c r="F10">
-        <v>2384</v>
-      </c>
-      <c r="G10">
-        <v>4847</v>
-      </c>
-      <c r="H10">
-        <v>7265</v>
-      </c>
-      <c r="I10">
-        <v>9737</v>
-      </c>
-      <c r="J10">
-        <v>19385</v>
-      </c>
-      <c r="K10">
-        <v>48603</v>
-      </c>
-      <c r="L10">
-        <v>72937</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>45</v>
-      </c>
-      <c r="D11">
-        <v>433</v>
-      </c>
-      <c r="E11">
-        <v>879</v>
-      </c>
-      <c r="F11">
-        <v>2396</v>
-      </c>
-      <c r="G11">
-        <v>4842</v>
-      </c>
-      <c r="H11">
-        <v>7263</v>
-      </c>
-      <c r="I11">
-        <v>9697</v>
-      </c>
-      <c r="J11">
-        <v>23871</v>
-      </c>
-      <c r="K11">
-        <v>48619</v>
-      </c>
-      <c r="L11">
-        <v>72942</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>45</v>
-      </c>
-      <c r="D12">
-        <v>441</v>
-      </c>
-      <c r="E12">
-        <v>877</v>
-      </c>
-      <c r="F12">
-        <v>2391</v>
-      </c>
-      <c r="G12">
-        <v>4844</v>
-      </c>
-      <c r="H12">
-        <v>7275</v>
-      </c>
-      <c r="I12">
-        <v>9682</v>
-      </c>
-      <c r="J12">
-        <v>19816</v>
-      </c>
-      <c r="K12">
-        <v>48553</v>
-      </c>
-      <c r="L12">
-        <v>72797</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
         <v>10</v>
       </c>
       <c r="C13" s="1">
@@ -17562,1057 +18060,1099 @@
       <c r="K13" s="1">
         <v>48507</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="5">
         <v>72938</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="16">
         <f>AVERAGE(C4:C13)</f>
         <v>44.7</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="16">
         <f>AVERAGE(D4:D13)</f>
         <v>441.5</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="16">
         <f>AVERAGE(E4:E13)</f>
         <v>875</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="16">
         <f t="shared" ref="F14:L14" si="0">AVERAGE(F4:F13)</f>
         <v>2382.6999999999998</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="16">
         <f t="shared" si="0"/>
         <v>4847.1000000000004</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="16">
         <f t="shared" si="0"/>
         <v>7265.5</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="16">
         <f t="shared" si="0"/>
         <v>9729.6</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="16">
         <f t="shared" si="0"/>
         <v>19879.8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="16">
         <f t="shared" si="0"/>
         <v>48700.1</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="17">
         <f t="shared" si="0"/>
         <v>73295.8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="14">
         <f>_xlfn.VAR.P(C4:C13)</f>
         <v>0.21000000000000002</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="14">
         <f>_xlfn.VAR.P(D4:D13)</f>
         <v>79.25</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="14">
         <f>_xlfn.VAR.P(E4:E13)</f>
         <v>52</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="14">
         <f t="shared" ref="F15:L15" si="1">_xlfn.VAR.P(F4:F13)</f>
         <v>144.61000000000004</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="14">
         <f t="shared" si="1"/>
         <v>125.48999999999997</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="14">
         <f t="shared" si="1"/>
         <v>103.45</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="14">
         <f t="shared" si="1"/>
         <v>2920.44</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="14">
         <f t="shared" si="1"/>
         <v>1786221.9600000002</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="14">
         <f t="shared" si="1"/>
         <v>75578.089999999982</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="15">
         <f t="shared" si="1"/>
         <v>191192.16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="12">
+        <v>5000</v>
+      </c>
+      <c r="E19" s="12">
+        <v>10000</v>
+      </c>
+      <c r="F19" s="12">
+        <v>25000</v>
+      </c>
+      <c r="G19" s="12">
+        <v>50000</v>
+      </c>
+      <c r="H19" s="12">
+        <v>75000</v>
+      </c>
+      <c r="I19" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J19" s="12">
+        <v>200000</v>
+      </c>
+      <c r="K19" s="12">
+        <v>500000</v>
+      </c>
+      <c r="L19" s="13">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2">
+        <v>34</v>
+      </c>
+      <c r="G20" s="2">
+        <v>68</v>
+      </c>
+      <c r="H20" s="2">
+        <v>101</v>
+      </c>
+      <c r="I20" s="2">
+        <v>137</v>
+      </c>
+      <c r="J20" s="2">
+        <v>267</v>
+      </c>
+      <c r="K20" s="2">
+        <v>682</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="9">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E21" s="2">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2">
+        <v>34</v>
+      </c>
+      <c r="G21" s="2">
+        <v>68</v>
+      </c>
+      <c r="H21" s="2">
+        <v>101</v>
+      </c>
+      <c r="I21" s="2">
+        <v>134</v>
+      </c>
+      <c r="J21" s="2">
+        <v>267</v>
+      </c>
+      <c r="K21" s="2">
+        <v>671</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2">
+        <v>34</v>
+      </c>
+      <c r="G22" s="2">
+        <v>67</v>
+      </c>
+      <c r="H22" s="2">
+        <v>101</v>
+      </c>
+      <c r="I22" s="2">
+        <v>133</v>
+      </c>
+      <c r="J22" s="2">
+        <v>267</v>
+      </c>
+      <c r="K22" s="2">
+        <v>671</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="9">
         <v>4</v>
       </c>
-      <c r="C18">
-        <v>1000</v>
-      </c>
-      <c r="D18">
-        <v>5000</v>
-      </c>
-      <c r="E18">
-        <v>10000</v>
-      </c>
-      <c r="F18">
-        <v>25000</v>
-      </c>
-      <c r="G18">
-        <v>50000</v>
-      </c>
-      <c r="H18">
-        <v>75000</v>
-      </c>
-      <c r="I18">
-        <v>100000</v>
-      </c>
-      <c r="J18">
-        <v>200000</v>
-      </c>
-      <c r="K18">
-        <v>500000</v>
-      </c>
-      <c r="L18">
-        <v>1000000</v>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2">
+        <v>33</v>
+      </c>
+      <c r="G23" s="2">
+        <v>67</v>
+      </c>
+      <c r="H23" s="2">
+        <v>101</v>
+      </c>
+      <c r="I23" s="2">
+        <v>133</v>
+      </c>
+      <c r="J23" s="2">
+        <v>265</v>
+      </c>
+      <c r="K23" s="2">
+        <v>669</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1365</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="9">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
         <v>1</v>
       </c>
-      <c r="C19">
+      <c r="D24" s="2">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2">
+        <v>34</v>
+      </c>
+      <c r="G24" s="2">
+        <v>68</v>
+      </c>
+      <c r="H24" s="2">
+        <v>100</v>
+      </c>
+      <c r="I24" s="2">
+        <v>134</v>
+      </c>
+      <c r="J24" s="2">
+        <v>264</v>
+      </c>
+      <c r="K24" s="2">
+        <v>680</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="9">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
         <v>1</v>
       </c>
-      <c r="D19">
+      <c r="D25" s="2">
         <v>7</v>
       </c>
-      <c r="E19">
+      <c r="E25" s="2">
         <v>14</v>
       </c>
-      <c r="F19">
+      <c r="F25" s="2">
         <v>34</v>
       </c>
-      <c r="G19">
-        <v>68</v>
-      </c>
-      <c r="H19">
+      <c r="G25" s="2">
+        <v>67</v>
+      </c>
+      <c r="H25" s="2">
         <v>101</v>
       </c>
-      <c r="I19">
-        <v>137</v>
-      </c>
-      <c r="J19">
-        <v>267</v>
-      </c>
-      <c r="K19">
-        <v>682</v>
-      </c>
-      <c r="L19">
-        <v>1365</v>
+      <c r="I25" s="2">
+        <v>133</v>
+      </c>
+      <c r="J25" s="2">
+        <v>265</v>
+      </c>
+      <c r="K25" s="2">
+        <v>680</v>
+      </c>
+      <c r="L25" s="4">
+        <v>1379</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B20">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="9">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2">
+        <v>14</v>
+      </c>
+      <c r="F26" s="2">
+        <v>34</v>
+      </c>
+      <c r="G26" s="2">
+        <v>67</v>
+      </c>
+      <c r="H26" s="2">
+        <v>100</v>
+      </c>
+      <c r="I26" s="2">
+        <v>133</v>
+      </c>
+      <c r="J26" s="2">
+        <v>264</v>
+      </c>
+      <c r="K26" s="2">
+        <v>671</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="9">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2">
+        <v>34</v>
+      </c>
+      <c r="G27" s="2">
+        <v>67</v>
+      </c>
+      <c r="H27" s="2">
+        <v>101</v>
+      </c>
+      <c r="I27" s="2">
+        <v>132</v>
+      </c>
+      <c r="J27" s="2">
+        <v>265</v>
+      </c>
+      <c r="K27" s="2">
+        <v>671</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="9">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2">
         <v>2</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>8</v>
-      </c>
-      <c r="E20">
+      <c r="D28" s="2">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2">
         <v>14</v>
       </c>
-      <c r="F20">
+      <c r="F28" s="2">
+        <v>35</v>
+      </c>
+      <c r="G28" s="2">
+        <v>67</v>
+      </c>
+      <c r="H28" s="2">
+        <v>101</v>
+      </c>
+      <c r="I28" s="2">
+        <v>133</v>
+      </c>
+      <c r="J28" s="2">
+        <v>263</v>
+      </c>
+      <c r="K28" s="2">
+        <v>670</v>
+      </c>
+      <c r="L28" s="4">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="9">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1">
         <v>34</v>
       </c>
-      <c r="G20">
-        <v>68</v>
-      </c>
-      <c r="H20">
-        <v>101</v>
-      </c>
-      <c r="I20">
-        <v>134</v>
-      </c>
-      <c r="J20">
-        <v>267</v>
-      </c>
-      <c r="K20">
-        <v>671</v>
-      </c>
-      <c r="L20">
-        <v>1353</v>
+      <c r="G29" s="1">
+        <v>67</v>
+      </c>
+      <c r="H29" s="1">
+        <v>100</v>
+      </c>
+      <c r="I29" s="1">
+        <v>132</v>
+      </c>
+      <c r="J29" s="1">
+        <v>265</v>
+      </c>
+      <c r="K29" s="1">
+        <v>672</v>
+      </c>
+      <c r="L29" s="5">
+        <v>1381</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="16">
+        <f>AVERAGE(C20:C29)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D30" s="16">
+        <f>AVERAGE(D20:D29)</f>
+        <v>7.2</v>
+      </c>
+      <c r="E30" s="16">
+        <f>AVERAGE(E20:E29)</f>
         <v>14</v>
       </c>
-      <c r="F21">
+      <c r="F30" s="16">
+        <f t="shared" ref="F30:L30" si="2">AVERAGE(F20:F29)</f>
         <v>34</v>
       </c>
-      <c r="G21">
-        <v>67</v>
-      </c>
-      <c r="H21">
-        <v>101</v>
-      </c>
-      <c r="I21">
-        <v>133</v>
-      </c>
-      <c r="J21">
-        <v>267</v>
-      </c>
-      <c r="K21">
-        <v>671</v>
-      </c>
-      <c r="L21">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22">
-        <v>14</v>
-      </c>
-      <c r="F22">
-        <v>33</v>
-      </c>
-      <c r="G22">
-        <v>67</v>
-      </c>
-      <c r="H22">
-        <v>101</v>
-      </c>
-      <c r="I22">
-        <v>133</v>
-      </c>
-      <c r="J22">
-        <v>265</v>
-      </c>
-      <c r="K22">
-        <v>669</v>
-      </c>
-      <c r="L22">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>14</v>
-      </c>
-      <c r="F23">
-        <v>34</v>
-      </c>
-      <c r="G23">
-        <v>68</v>
-      </c>
-      <c r="H23">
-        <v>100</v>
-      </c>
-      <c r="I23">
-        <v>134</v>
-      </c>
-      <c r="J23">
-        <v>264</v>
-      </c>
-      <c r="K23">
-        <v>680</v>
-      </c>
-      <c r="L23">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>14</v>
-      </c>
-      <c r="F24">
-        <v>34</v>
-      </c>
-      <c r="G24">
-        <v>67</v>
-      </c>
-      <c r="H24">
-        <v>101</v>
-      </c>
-      <c r="I24">
-        <v>133</v>
-      </c>
-      <c r="J24">
-        <v>265</v>
-      </c>
-      <c r="K24">
-        <v>680</v>
-      </c>
-      <c r="L24">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>14</v>
-      </c>
-      <c r="F25">
-        <v>34</v>
-      </c>
-      <c r="G25">
-        <v>67</v>
-      </c>
-      <c r="H25">
-        <v>100</v>
-      </c>
-      <c r="I25">
-        <v>133</v>
-      </c>
-      <c r="J25">
-        <v>264</v>
-      </c>
-      <c r="K25">
-        <v>671</v>
-      </c>
-      <c r="L25">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>7</v>
-      </c>
-      <c r="E26">
-        <v>14</v>
-      </c>
-      <c r="F26">
-        <v>34</v>
-      </c>
-      <c r="G26">
-        <v>67</v>
-      </c>
-      <c r="H26">
-        <v>101</v>
-      </c>
-      <c r="I26">
-        <v>132</v>
-      </c>
-      <c r="J26">
-        <v>265</v>
-      </c>
-      <c r="K26">
-        <v>671</v>
-      </c>
-      <c r="L26">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>9</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>7</v>
-      </c>
-      <c r="E27">
-        <v>14</v>
-      </c>
-      <c r="F27">
-        <v>35</v>
-      </c>
-      <c r="G27">
-        <v>67</v>
-      </c>
-      <c r="H27">
-        <v>101</v>
-      </c>
-      <c r="I27">
-        <v>133</v>
-      </c>
-      <c r="J27">
-        <v>263</v>
-      </c>
-      <c r="K27">
-        <v>670</v>
-      </c>
-      <c r="L27">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>7</v>
-      </c>
-      <c r="E28" s="1">
-        <v>14</v>
-      </c>
-      <c r="F28" s="1">
-        <v>34</v>
-      </c>
-      <c r="G28" s="1">
-        <v>67</v>
-      </c>
-      <c r="H28" s="1">
-        <v>100</v>
-      </c>
-      <c r="I28" s="1">
-        <v>132</v>
-      </c>
-      <c r="J28" s="1">
-        <v>265</v>
-      </c>
-      <c r="K28" s="1">
-        <v>672</v>
-      </c>
-      <c r="L28" s="1">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C19:C28)</f>
-        <v>1.5</v>
-      </c>
-      <c r="D29" s="3">
-        <f>AVERAGE(D19:D28)</f>
-        <v>7.2</v>
-      </c>
-      <c r="E29" s="3">
-        <f>AVERAGE(E19:E28)</f>
-        <v>14</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" ref="F29:L29" si="2">AVERAGE(F19:F28)</f>
-        <v>34</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="G30" s="16">
         <f t="shared" si="2"/>
         <v>67.3</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H30" s="16">
         <f t="shared" si="2"/>
         <v>100.7</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I30" s="16">
         <f t="shared" si="2"/>
         <v>133.4</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J30" s="16">
         <f t="shared" si="2"/>
         <v>265.2</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K30" s="16">
         <f t="shared" si="2"/>
         <v>673.7</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L30" s="17">
         <f t="shared" si="2"/>
         <v>1373.5</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="3">
-        <f>_xlfn.VAR.P(C19:C28)</f>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="14">
+        <f>_xlfn.VAR.P(C20:C29)</f>
         <v>0.45</v>
       </c>
-      <c r="D30" s="3">
-        <f>_xlfn.VAR.P(D19:D28)</f>
+      <c r="D31" s="14">
+        <f>_xlfn.VAR.P(D20:D29)</f>
         <v>0.15999999999999998</v>
       </c>
-      <c r="E30" s="3">
-        <f t="shared" ref="E30:L30" si="3">_xlfn.VAR.P(E19:E28)</f>
+      <c r="E31" s="14">
+        <f t="shared" ref="E31:L31" si="3">_xlfn.VAR.P(E20:E29)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F31" s="14">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G31" s="14">
         <f t="shared" si="3"/>
         <v>0.20999999999999996</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H31" s="14">
         <f t="shared" si="3"/>
         <v>0.21000000000000002</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I31" s="14">
         <f t="shared" si="3"/>
         <v>1.8399999999999992</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J31" s="14">
         <f t="shared" si="3"/>
         <v>1.7600000000000002</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K31" s="14">
         <f t="shared" si="3"/>
         <v>21.610000000000003</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L31" s="15">
         <f t="shared" si="3"/>
         <v>100.05</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="12">
+        <v>5000</v>
+      </c>
+      <c r="E35" s="12">
+        <v>10000</v>
+      </c>
+      <c r="F35" s="12">
+        <v>25000</v>
+      </c>
+      <c r="G35" s="12">
+        <v>50000</v>
+      </c>
+      <c r="H35" s="12">
+        <v>75000</v>
+      </c>
+      <c r="I35" s="12">
+        <v>100000</v>
+      </c>
+      <c r="J35" s="12">
+        <v>200000</v>
+      </c>
+      <c r="K35" s="12">
+        <v>500000</v>
+      </c>
+      <c r="L35" s="13">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="9">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>18</v>
+      </c>
+      <c r="E36" s="2">
+        <v>64</v>
+      </c>
+      <c r="F36" s="2">
+        <v>384</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1538</v>
+      </c>
+      <c r="H36" s="2">
+        <v>3749</v>
+      </c>
+      <c r="I36" s="2">
+        <v>6155</v>
+      </c>
+      <c r="J36" s="2">
+        <v>25488</v>
+      </c>
+      <c r="K36" s="2">
+        <v>177410</v>
+      </c>
+      <c r="L36" s="4">
+        <v>800141</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="9">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>17</v>
+      </c>
+      <c r="E37" s="2">
+        <v>79</v>
+      </c>
+      <c r="F37" s="2">
+        <v>417</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1509</v>
+      </c>
+      <c r="H37" s="2">
+        <v>3432</v>
+      </c>
+      <c r="I37" s="2">
+        <v>6149</v>
+      </c>
+      <c r="J37" s="2">
+        <v>25163</v>
+      </c>
+      <c r="K37" s="2">
+        <v>177432</v>
+      </c>
+      <c r="L37" s="4">
+        <v>778327</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="9">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>17</v>
+      </c>
+      <c r="E38" s="2">
+        <v>62</v>
+      </c>
+      <c r="F38" s="2">
+        <v>409</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1489</v>
+      </c>
+      <c r="H38" s="2">
+        <v>3442</v>
+      </c>
+      <c r="I38" s="2">
+        <v>6192</v>
+      </c>
+      <c r="J38" s="2">
+        <v>25118</v>
+      </c>
+      <c r="K38" s="2">
+        <v>177524</v>
+      </c>
+      <c r="L38" s="4">
+        <v>783551</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="9">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>18</v>
+      </c>
+      <c r="E39" s="2">
+        <v>78</v>
+      </c>
+      <c r="F39" s="2">
+        <v>403</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H39" s="2">
+        <v>3434</v>
+      </c>
+      <c r="I39" s="2">
+        <v>6143</v>
+      </c>
+      <c r="J39" s="2">
+        <v>25055</v>
+      </c>
+      <c r="K39" s="2">
+        <v>179082</v>
+      </c>
+      <c r="L39" s="4">
+        <v>811857</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="9">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>17</v>
+      </c>
+      <c r="E40" s="2">
+        <v>75</v>
+      </c>
+      <c r="F40" s="2">
+        <v>393</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1499</v>
+      </c>
+      <c r="H40" s="2">
+        <v>3451</v>
+      </c>
+      <c r="I40" s="2">
+        <v>6149</v>
+      </c>
+      <c r="J40" s="2">
+        <v>25164</v>
+      </c>
+      <c r="K40" s="2">
+        <v>181440</v>
+      </c>
+      <c r="L40" s="4">
+        <v>790292</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="9">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>18</v>
+      </c>
+      <c r="E41" s="2">
+        <v>63</v>
+      </c>
+      <c r="F41" s="2">
+        <v>375</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1497</v>
+      </c>
+      <c r="H41" s="2">
+        <v>3434</v>
+      </c>
+      <c r="I41" s="2">
+        <v>6556</v>
+      </c>
+      <c r="J41" s="2">
+        <v>25038</v>
+      </c>
+      <c r="K41" s="2">
+        <v>183571</v>
+      </c>
+      <c r="L41" s="4">
+        <v>789612</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="9">
         <v>7</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>18</v>
+      </c>
+      <c r="E42" s="2">
+        <v>79</v>
+      </c>
+      <c r="F42" s="2">
+        <v>388</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1497</v>
+      </c>
+      <c r="H42" s="2">
+        <v>3434</v>
+      </c>
+      <c r="I42" s="2">
+        <v>6344</v>
+      </c>
+      <c r="J42" s="2">
+        <v>25667</v>
+      </c>
+      <c r="K42" s="2">
+        <v>181185</v>
+      </c>
+      <c r="L42" s="4">
+        <v>798544</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="9">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>17</v>
+      </c>
+      <c r="E43" s="2">
+        <v>80</v>
+      </c>
+      <c r="F43" s="2">
+        <v>373</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1496</v>
+      </c>
+      <c r="H43" s="2">
+        <v>3436</v>
+      </c>
+      <c r="I43" s="2">
+        <v>6383</v>
+      </c>
+      <c r="J43" s="2">
+        <v>25173</v>
+      </c>
+      <c r="K43" s="2">
+        <v>212314</v>
+      </c>
+      <c r="L43" s="4">
+        <v>799568</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="9">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>18</v>
+      </c>
+      <c r="E44" s="2">
+        <v>63</v>
+      </c>
+      <c r="F44" s="2">
+        <v>379</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1503</v>
+      </c>
+      <c r="H44" s="2">
+        <v>3433</v>
+      </c>
+      <c r="I44" s="2">
+        <v>6315</v>
+      </c>
+      <c r="J44" s="2">
+        <v>25132</v>
+      </c>
+      <c r="K44" s="2">
+        <v>194856</v>
+      </c>
+      <c r="L44" s="4">
+        <v>825592</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="9">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>17</v>
+      </c>
+      <c r="E45" s="1">
+        <v>68</v>
+      </c>
+      <c r="F45" s="1">
+        <v>371</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1500</v>
+      </c>
+      <c r="H45" s="1">
+        <v>3438</v>
+      </c>
+      <c r="I45" s="1">
+        <v>6155</v>
+      </c>
+      <c r="J45" s="1">
+        <v>28422</v>
+      </c>
+      <c r="K45" s="1">
+        <v>187320</v>
+      </c>
+      <c r="L45" s="5">
+        <v>818700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C33">
-        <v>1000</v>
-      </c>
-      <c r="D33">
-        <v>5000</v>
-      </c>
-      <c r="E33">
-        <v>10000</v>
-      </c>
-      <c r="F33">
-        <v>25000</v>
-      </c>
-      <c r="G33">
-        <v>50000</v>
-      </c>
-      <c r="H33">
-        <v>75000</v>
-      </c>
-      <c r="I33">
-        <v>100000</v>
-      </c>
-      <c r="J33">
-        <v>200000</v>
-      </c>
-      <c r="K33">
-        <v>500000</v>
-      </c>
-      <c r="L33">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34">
+      <c r="C46" s="16">
+        <f>AVERAGE(C36:C45)</f>
         <v>1</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>18</v>
-      </c>
-      <c r="E34">
-        <v>64</v>
-      </c>
-      <c r="F34">
-        <v>384</v>
-      </c>
-      <c r="G34">
-        <v>1538</v>
-      </c>
-      <c r="H34">
-        <v>3749</v>
-      </c>
-      <c r="I34">
-        <v>6155</v>
-      </c>
-      <c r="J34">
-        <v>25488</v>
-      </c>
-      <c r="K34">
-        <v>177410</v>
-      </c>
-      <c r="L34">
-        <v>800141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>17</v>
-      </c>
-      <c r="E35">
-        <v>79</v>
-      </c>
-      <c r="F35">
-        <v>417</v>
-      </c>
-      <c r="G35">
-        <v>1509</v>
-      </c>
-      <c r="H35">
-        <v>3432</v>
-      </c>
-      <c r="I35">
-        <v>6149</v>
-      </c>
-      <c r="J35">
-        <v>25163</v>
-      </c>
-      <c r="K35">
-        <v>177432</v>
-      </c>
-      <c r="L35">
-        <v>778327</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>17</v>
-      </c>
-      <c r="E36">
-        <v>62</v>
-      </c>
-      <c r="F36">
-        <v>409</v>
-      </c>
-      <c r="G36">
-        <v>1489</v>
-      </c>
-      <c r="H36">
-        <v>3442</v>
-      </c>
-      <c r="I36">
-        <v>6192</v>
-      </c>
-      <c r="J36">
-        <v>25118</v>
-      </c>
-      <c r="K36">
-        <v>177524</v>
-      </c>
-      <c r="L36">
-        <v>783551</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>18</v>
-      </c>
-      <c r="E37">
-        <v>78</v>
-      </c>
-      <c r="F37">
-        <v>403</v>
-      </c>
-      <c r="G37">
-        <v>1500</v>
-      </c>
-      <c r="H37">
-        <v>3434</v>
-      </c>
-      <c r="I37">
-        <v>6143</v>
-      </c>
-      <c r="J37">
-        <v>25055</v>
-      </c>
-      <c r="K37">
-        <v>179082</v>
-      </c>
-      <c r="L37">
-        <v>811857</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>5</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>17</v>
-      </c>
-      <c r="E38">
-        <v>75</v>
-      </c>
-      <c r="F38">
-        <v>393</v>
-      </c>
-      <c r="G38">
-        <v>1499</v>
-      </c>
-      <c r="H38">
-        <v>3451</v>
-      </c>
-      <c r="I38">
-        <v>6149</v>
-      </c>
-      <c r="J38">
-        <v>25164</v>
-      </c>
-      <c r="K38">
-        <v>181440</v>
-      </c>
-      <c r="L38">
-        <v>790292</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>6</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>18</v>
-      </c>
-      <c r="E39">
-        <v>63</v>
-      </c>
-      <c r="F39">
-        <v>375</v>
-      </c>
-      <c r="G39">
-        <v>1497</v>
-      </c>
-      <c r="H39">
-        <v>3434</v>
-      </c>
-      <c r="I39">
-        <v>6556</v>
-      </c>
-      <c r="J39">
-        <v>25038</v>
-      </c>
-      <c r="K39">
-        <v>183571</v>
-      </c>
-      <c r="L39">
-        <v>789612</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>7</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>18</v>
-      </c>
-      <c r="E40">
-        <v>79</v>
-      </c>
-      <c r="F40">
-        <v>388</v>
-      </c>
-      <c r="G40">
-        <v>1497</v>
-      </c>
-      <c r="H40">
-        <v>3434</v>
-      </c>
-      <c r="I40">
-        <v>6344</v>
-      </c>
-      <c r="J40">
-        <v>25667</v>
-      </c>
-      <c r="K40">
-        <v>181185</v>
-      </c>
-      <c r="L40">
-        <v>798544</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>8</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>17</v>
-      </c>
-      <c r="E41">
-        <v>80</v>
-      </c>
-      <c r="F41">
-        <v>373</v>
-      </c>
-      <c r="G41">
-        <v>1496</v>
-      </c>
-      <c r="H41">
-        <v>3436</v>
-      </c>
-      <c r="I41">
-        <v>6383</v>
-      </c>
-      <c r="J41">
-        <v>25173</v>
-      </c>
-      <c r="K41">
-        <v>212314</v>
-      </c>
-      <c r="L41">
-        <v>799568</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>9</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>18</v>
-      </c>
-      <c r="E42">
-        <v>63</v>
-      </c>
-      <c r="F42">
-        <v>379</v>
-      </c>
-      <c r="G42">
-        <v>1503</v>
-      </c>
-      <c r="H42">
-        <v>3433</v>
-      </c>
-      <c r="I42">
-        <v>6315</v>
-      </c>
-      <c r="J42">
-        <v>25132</v>
-      </c>
-      <c r="K42">
-        <v>194856</v>
-      </c>
-      <c r="L42">
-        <v>825592</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>10</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
-        <v>17</v>
-      </c>
-      <c r="E43" s="1">
-        <v>68</v>
-      </c>
-      <c r="F43" s="1">
-        <v>371</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1500</v>
-      </c>
-      <c r="H43" s="1">
-        <v>3438</v>
-      </c>
-      <c r="I43" s="1">
-        <v>6155</v>
-      </c>
-      <c r="J43" s="1">
-        <v>28422</v>
-      </c>
-      <c r="K43" s="1">
-        <v>187320</v>
-      </c>
-      <c r="L43" s="1">
-        <v>818700</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="3">
-        <f>AVERAGE(C34:C43)</f>
-        <v>1</v>
-      </c>
-      <c r="D44" s="3">
-        <f>AVERAGE(D34:D43)</f>
+      <c r="D46" s="16">
+        <f>AVERAGE(D36:D45)</f>
         <v>17.5</v>
       </c>
-      <c r="E44" s="3">
-        <f>AVERAGE(E34:E43)</f>
+      <c r="E46" s="16">
+        <f>AVERAGE(E36:E45)</f>
         <v>71.099999999999994</v>
       </c>
-      <c r="F44" s="3">
-        <f t="shared" ref="F44:L44" si="4">AVERAGE(F34:F43)</f>
+      <c r="F46" s="16">
+        <f t="shared" ref="F46:L46" si="4">AVERAGE(F36:F45)</f>
         <v>389.2</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G46" s="16">
         <f t="shared" si="4"/>
         <v>1502.8</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H46" s="16">
         <f t="shared" si="4"/>
         <v>3468.3</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I46" s="16">
         <f t="shared" si="4"/>
         <v>6254.1</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J46" s="16">
         <f t="shared" si="4"/>
         <v>25542</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K46" s="16">
         <f t="shared" si="4"/>
         <v>185213.4</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L46" s="17">
         <f t="shared" si="4"/>
         <v>799618.4</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45">
-        <f>_xlfn.VAR.P(C34:C43)</f>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1">
+        <f>_xlfn.VAR.P(C36:C45)</f>
         <v>0</v>
       </c>
-      <c r="D45">
-        <f>_xlfn.VAR.P(D34:D43)</f>
+      <c r="D47" s="1">
+        <f>_xlfn.VAR.P(D36:D45)</f>
         <v>0.25</v>
       </c>
-      <c r="E45">
-        <f t="shared" ref="E45:L45" si="5">_xlfn.VAR.P(E34:E43)</f>
+      <c r="E47" s="1">
+        <f t="shared" ref="E47:L47" si="5">_xlfn.VAR.P(E36:E45)</f>
         <v>54.09</v>
       </c>
-      <c r="F45">
+      <c r="F47" s="1">
         <f t="shared" si="5"/>
         <v>229.76</v>
       </c>
-      <c r="G45">
+      <c r="G47" s="1">
         <f t="shared" si="5"/>
         <v>161.15999999999994</v>
       </c>
-      <c r="H45">
+      <c r="H47" s="1">
         <f t="shared" si="5"/>
         <v>8783.8100000000031</v>
       </c>
-      <c r="I45">
+      <c r="I47" s="1">
         <f t="shared" si="5"/>
         <v>17748.29</v>
       </c>
-      <c r="J45">
+      <c r="J47" s="1">
         <f t="shared" si="5"/>
         <v>957468.8</v>
       </c>
-      <c r="K45">
+      <c r="K47" s="1">
         <f t="shared" si="5"/>
         <v>108318822.64000002</v>
       </c>
-      <c r="L45">
+      <c r="L47" s="5">
         <f t="shared" si="5"/>
         <v>208854350.64000002</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B34:L34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="C14 L14" formulaRange="1"/>

--- a/U2/report/testing.xlsx
+++ b/U2/report/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\SKOLA_CVUT\MGR\ADKG\U2\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100008_{F7607463-B060-4F2D-AD03-274921E290B1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E29782E2-7A54-4E35-88CC-FA98FD064867}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{CEFAD511-70BF-4EA0-AF74-936C756BD128}"/>
   </bookViews>
@@ -306,15 +306,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -340,6 +331,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,34 +741,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92.6</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>539.29999999999995</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2091.6999999999998</c:v>
+                  <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4450.3999999999996</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7818.6</c:v>
+                  <c:v>22.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31694.400000000001</c:v>
+                  <c:v>47.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>179290.2</c:v>
+                  <c:v>124.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>635048.4</c:v>
+                  <c:v>238.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2229,34 +2229,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.5</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.099999999999994</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>389.2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1502.8</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3468.3</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6254.1</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25542</c:v>
+                  <c:v>14.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>185213.4</c:v>
+                  <c:v>38.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>799618.4</c:v>
+                  <c:v>73.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2951,34 +2951,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.6</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84.4</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>462.9</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1719.1</c:v>
+                  <c:v>10.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3723.1</c:v>
+                  <c:v>17.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6763.6</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27294.5</c:v>
+                  <c:v>43.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>179383.6</c:v>
+                  <c:v>103.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>745138.1</c:v>
+                  <c:v>186.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3720,34 +3720,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.5</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.099999999999994</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>389.2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1502.8</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3468.3</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6254.1</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25542</c:v>
+                  <c:v>14.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>185213.4</c:v>
+                  <c:v>38.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>799618.4</c:v>
+                  <c:v>73.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5208,34 +5208,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92.6</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>539.29999999999995</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2091.6999999999998</c:v>
+                  <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4450.3999999999996</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7818.6</c:v>
+                  <c:v>22.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31694.400000000001</c:v>
+                  <c:v>47.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>179290.2</c:v>
+                  <c:v>124.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>635048.4</c:v>
+                  <c:v>238.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5373,7 +5373,6 @@
         <c:axId val="803222184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="800000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6651,34 +6650,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.6</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84.4</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>462.9</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1719.1</c:v>
+                  <c:v>10.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3723.1</c:v>
+                  <c:v>17.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6763.6</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27294.5</c:v>
+                  <c:v>43.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>179383.6</c:v>
+                  <c:v>103.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>745138.1</c:v>
+                  <c:v>186.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14127,7 +14126,7 @@
   <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14143,66 +14142,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="26" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="28"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
@@ -14220,9 +14219,9 @@
       </c>
       <c r="E5" s="6">
         <f>random!C46</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F5" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="18">
         <f>raster!$C$14</f>
         <v>25.7</v>
       </c>
@@ -14232,7 +14231,7 @@
       </c>
       <c r="H5" s="7">
         <f>raster!$C$46</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I5" s="6">
         <f>circle!C14</f>
@@ -14244,7 +14243,7 @@
       </c>
       <c r="K5" s="7">
         <f>circle!C46</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -14261,9 +14260,9 @@
       </c>
       <c r="E6" s="6">
         <f>random!D46</f>
-        <v>22.5</v>
-      </c>
-      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18">
         <f>raster!$D$14</f>
         <v>284.5</v>
       </c>
@@ -14273,7 +14272,7 @@
       </c>
       <c r="H6" s="7">
         <f>raster!$D$46</f>
-        <v>22.6</v>
+        <v>0.9</v>
       </c>
       <c r="I6" s="6">
         <f>circle!D14</f>
@@ -14285,7 +14284,7 @@
       </c>
       <c r="K6" s="7">
         <f>circle!D46</f>
-        <v>17.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -14302,9 +14301,9 @@
       </c>
       <c r="E7" s="6">
         <f>random!E46</f>
-        <v>92.6</v>
-      </c>
-      <c r="F7" s="21">
+        <v>2.1</v>
+      </c>
+      <c r="F7" s="18">
         <f>raster!$E$14</f>
         <v>794.2</v>
       </c>
@@ -14314,7 +14313,7 @@
       </c>
       <c r="H7" s="7">
         <f>raster!$E$46</f>
-        <v>84.4</v>
+        <v>2.1</v>
       </c>
       <c r="I7" s="6">
         <f>circle!E14</f>
@@ -14326,7 +14325,7 @@
       </c>
       <c r="K7" s="7">
         <f>circle!E46</f>
-        <v>71.099999999999994</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -14343,9 +14342,9 @@
       </c>
       <c r="E8" s="6">
         <f>random!F46</f>
-        <v>539.29999999999995</v>
-      </c>
-      <c r="F8" s="21">
+        <v>5.6</v>
+      </c>
+      <c r="F8" s="18">
         <f>raster!$F$14</f>
         <v>3207.6</v>
       </c>
@@ -14355,7 +14354,7 @@
       </c>
       <c r="H8" s="7">
         <f>raster!$F$46</f>
-        <v>462.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I8" s="6">
         <f>circle!F14</f>
@@ -14367,7 +14366,7 @@
       </c>
       <c r="K8" s="7">
         <f>circle!F46</f>
-        <v>389.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -14384,9 +14383,9 @@
       </c>
       <c r="E9" s="6">
         <f>random!G46</f>
-        <v>2091.6999999999998</v>
-      </c>
-      <c r="F9" s="21">
+        <v>10.6</v>
+      </c>
+      <c r="F9" s="18">
         <f>raster!$G$14</f>
         <v>9096.5</v>
       </c>
@@ -14396,7 +14395,7 @@
       </c>
       <c r="H9" s="7">
         <f>raster!$G$46</f>
-        <v>1719.1</v>
+        <v>10.9</v>
       </c>
       <c r="I9" s="6">
         <f>circle!G14</f>
@@ -14408,7 +14407,7 @@
       </c>
       <c r="K9" s="7">
         <f>circle!G46</f>
-        <v>1502.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -14425,9 +14424,9 @@
       </c>
       <c r="E10" s="6">
         <f>random!H46</f>
-        <v>4450.3999999999996</v>
-      </c>
-      <c r="F10" s="21">
+        <v>16.2</v>
+      </c>
+      <c r="F10" s="18">
         <f>raster!$H$14</f>
         <v>16612.3</v>
       </c>
@@ -14437,7 +14436,7 @@
       </c>
       <c r="H10" s="7">
         <f>raster!$H$46</f>
-        <v>3723.1</v>
+        <v>17.2</v>
       </c>
       <c r="I10" s="6">
         <f>circle!H14</f>
@@ -14449,7 +14448,7 @@
       </c>
       <c r="K10" s="7">
         <f>circle!H46</f>
-        <v>3468.3</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -14466,9 +14465,9 @@
       </c>
       <c r="E11" s="6">
         <f>random!I46</f>
-        <v>7818.6</v>
-      </c>
-      <c r="F11" s="21">
+        <v>22.4</v>
+      </c>
+      <c r="F11" s="18">
         <f>raster!$I$14</f>
         <v>25434.799999999999</v>
       </c>
@@ -14478,7 +14477,7 @@
       </c>
       <c r="H11" s="7">
         <f>raster!$I$46</f>
-        <v>6763.6</v>
+        <v>22</v>
       </c>
       <c r="I11" s="6">
         <f>circle!I14</f>
@@ -14490,7 +14489,7 @@
       </c>
       <c r="K11" s="7">
         <f>circle!I46</f>
-        <v>6254.1</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -14507,9 +14506,9 @@
       </c>
       <c r="E12" s="6">
         <f>random!J46</f>
-        <v>31694.400000000001</v>
-      </c>
-      <c r="F12" s="21">
+        <v>47.3</v>
+      </c>
+      <c r="F12" s="18">
         <f>raster!$J$14</f>
         <v>71724</v>
       </c>
@@ -14519,7 +14518,7 @@
       </c>
       <c r="H12" s="7">
         <f>raster!$J$46</f>
-        <v>27294.5</v>
+        <v>43.9</v>
       </c>
       <c r="I12" s="6">
         <f>circle!J14</f>
@@ -14531,7 +14530,7 @@
       </c>
       <c r="K12" s="7">
         <f>circle!J46</f>
-        <v>25542</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -14548,9 +14547,9 @@
       </c>
       <c r="E13" s="6">
         <f>random!K46</f>
-        <v>179290.2</v>
-      </c>
-      <c r="F13" s="21">
+        <v>124.5</v>
+      </c>
+      <c r="F13" s="18">
         <f>raster!$K$14</f>
         <v>272534.8</v>
       </c>
@@ -14560,7 +14559,7 @@
       </c>
       <c r="H13" s="7">
         <f>raster!$K$46</f>
-        <v>179383.6</v>
+        <v>103.4</v>
       </c>
       <c r="I13" s="6">
         <f>circle!K14</f>
@@ -14572,7 +14571,7 @@
       </c>
       <c r="K13" s="7">
         <f>circle!K46</f>
-        <v>185213.4</v>
+        <v>38.700000000000003</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -14589,9 +14588,9 @@
       </c>
       <c r="E14" s="14">
         <f>random!L46</f>
-        <v>635048.4</v>
-      </c>
-      <c r="F14" s="22">
+        <v>238.9</v>
+      </c>
+      <c r="F14" s="19">
         <f>raster!$L$14</f>
         <v>567696.9</v>
       </c>
@@ -14601,7 +14600,7 @@
       </c>
       <c r="H14" s="15">
         <f>raster!$L$46</f>
-        <v>745138.1</v>
+        <v>186.3</v>
       </c>
       <c r="I14" s="14">
         <f>circle!L14</f>
@@ -14613,7 +14612,7 @@
       </c>
       <c r="K14" s="15">
         <f>circle!L46</f>
-        <v>799618.4</v>
+        <v>73.5</v>
       </c>
     </row>
   </sheetData>
@@ -14633,8 +14632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43718E85-AD71-4B48-9361-1429EADDF8C1}">
   <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14646,19 +14645,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -15136,19 +15135,19 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="20"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
@@ -15638,19 +15637,19 @@
       <c r="L32" s="3"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="20"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="30"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
@@ -15692,34 +15691,34 @@
         <v>1</v>
       </c>
       <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
         <v>1</v>
       </c>
-      <c r="D36" s="2">
-        <v>22</v>
-      </c>
       <c r="E36" s="2">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="F36" s="2">
-        <v>556</v>
+        <v>5</v>
       </c>
       <c r="G36" s="2">
-        <v>2118</v>
+        <v>10</v>
       </c>
       <c r="H36" s="2">
-        <v>4459</v>
+        <v>17</v>
       </c>
       <c r="I36" s="2">
-        <v>7737</v>
+        <v>23</v>
       </c>
       <c r="J36" s="2">
-        <v>30720</v>
+        <v>45</v>
       </c>
       <c r="K36" s="2">
-        <v>179375</v>
+        <v>129</v>
       </c>
       <c r="L36" s="4">
-        <v>687846</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -15727,34 +15726,34 @@
         <v>2</v>
       </c>
       <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
         <v>1</v>
       </c>
-      <c r="D37" s="2">
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>5</v>
+      </c>
+      <c r="G37" s="2">
+        <v>11</v>
+      </c>
+      <c r="H37" s="2">
+        <v>16</v>
+      </c>
+      <c r="I37" s="2">
         <v>22</v>
       </c>
-      <c r="E37" s="2">
-        <v>89</v>
-      </c>
-      <c r="F37" s="2">
-        <v>564</v>
-      </c>
-      <c r="G37" s="2">
-        <v>2056</v>
-      </c>
-      <c r="H37" s="2">
-        <v>4453</v>
-      </c>
-      <c r="I37" s="2">
-        <v>7729</v>
-      </c>
       <c r="J37" s="2">
-        <v>30366</v>
+        <v>46</v>
       </c>
       <c r="K37" s="2">
-        <v>183733</v>
+        <v>127</v>
       </c>
       <c r="L37" s="4">
-        <v>704175</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -15762,34 +15761,34 @@
         <v>3</v>
       </c>
       <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
         <v>1</v>
       </c>
-      <c r="D38" s="2">
+      <c r="E38" s="2">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2">
+        <v>6</v>
+      </c>
+      <c r="G38" s="2">
+        <v>11</v>
+      </c>
+      <c r="H38" s="2">
+        <v>16</v>
+      </c>
+      <c r="I38" s="2">
         <v>22</v>
       </c>
-      <c r="E38" s="2">
-        <v>92</v>
-      </c>
-      <c r="F38" s="2">
-        <v>554</v>
-      </c>
-      <c r="G38" s="2">
-        <v>2088</v>
-      </c>
-      <c r="H38" s="2">
-        <v>4445</v>
-      </c>
-      <c r="I38" s="2">
-        <v>7736</v>
-      </c>
       <c r="J38" s="2">
-        <v>30346</v>
+        <v>52</v>
       </c>
       <c r="K38" s="2">
-        <v>181597</v>
+        <v>129</v>
       </c>
       <c r="L38" s="4">
-        <v>654683</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -15797,34 +15796,34 @@
         <v>4</v>
       </c>
       <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
         <v>1</v>
       </c>
-      <c r="D39" s="2">
-        <v>22</v>
-      </c>
       <c r="E39" s="2">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="F39" s="2">
-        <v>540</v>
+        <v>6</v>
       </c>
       <c r="G39" s="2">
-        <v>2137</v>
+        <v>10</v>
       </c>
       <c r="H39" s="2">
-        <v>4478</v>
+        <v>17</v>
       </c>
       <c r="I39" s="2">
-        <v>7730</v>
+        <v>23</v>
       </c>
       <c r="J39" s="2">
-        <v>30396</v>
+        <v>46</v>
       </c>
       <c r="K39" s="2">
-        <v>177733</v>
+        <v>133</v>
       </c>
       <c r="L39" s="4">
-        <v>622306</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -15832,34 +15831,34 @@
         <v>5</v>
       </c>
       <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
         <v>1</v>
       </c>
-      <c r="D40" s="2">
-        <v>22</v>
-      </c>
       <c r="E40" s="2">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="F40" s="2">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="G40" s="2">
-        <v>2082</v>
+        <v>10</v>
       </c>
       <c r="H40" s="2">
-        <v>4443</v>
+        <v>16</v>
       </c>
       <c r="I40" s="2">
-        <v>7758</v>
+        <v>23</v>
       </c>
       <c r="J40" s="2">
-        <v>34322</v>
+        <v>48</v>
       </c>
       <c r="K40" s="2">
-        <v>177403</v>
+        <v>133</v>
       </c>
       <c r="L40" s="4">
-        <v>617258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -15867,34 +15866,34 @@
         <v>6</v>
       </c>
       <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
         <v>1</v>
       </c>
-      <c r="D41" s="2">
-        <v>22</v>
-      </c>
       <c r="E41" s="2">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="F41" s="2">
-        <v>531</v>
+        <v>6</v>
       </c>
       <c r="G41" s="2">
-        <v>2100</v>
+        <v>11</v>
       </c>
       <c r="H41" s="2">
-        <v>4442</v>
+        <v>16</v>
       </c>
       <c r="I41" s="2">
-        <v>7742</v>
+        <v>23</v>
       </c>
       <c r="J41" s="2">
-        <v>31732</v>
+        <v>46</v>
       </c>
       <c r="K41" s="2">
-        <v>177527</v>
+        <v>119</v>
       </c>
       <c r="L41" s="4">
-        <v>605910</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -15905,31 +15904,31 @@
         <v>1</v>
       </c>
       <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2">
+        <v>6</v>
+      </c>
+      <c r="G42" s="2">
+        <v>11</v>
+      </c>
+      <c r="H42" s="2">
+        <v>16</v>
+      </c>
+      <c r="I42" s="2">
         <v>22</v>
       </c>
-      <c r="E42" s="2">
-        <v>101</v>
-      </c>
-      <c r="F42" s="2">
-        <v>512</v>
-      </c>
-      <c r="G42" s="2">
-        <v>2018</v>
-      </c>
-      <c r="H42" s="2">
-        <v>4442</v>
-      </c>
-      <c r="I42" s="2">
-        <v>8107</v>
-      </c>
       <c r="J42" s="2">
-        <v>30937</v>
+        <v>47</v>
       </c>
       <c r="K42" s="2">
-        <v>179711</v>
+        <v>126</v>
       </c>
       <c r="L42" s="4">
-        <v>603503</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -15937,34 +15936,34 @@
         <v>8</v>
       </c>
       <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
         <v>1</v>
       </c>
-      <c r="D43" s="2">
-        <v>29</v>
-      </c>
       <c r="E43" s="2">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="F43" s="2">
-        <v>526</v>
+        <v>5</v>
       </c>
       <c r="G43" s="2">
-        <v>2160</v>
+        <v>10</v>
       </c>
       <c r="H43" s="2">
-        <v>4442</v>
+        <v>16</v>
       </c>
       <c r="I43" s="2">
-        <v>8137</v>
+        <v>22</v>
       </c>
       <c r="J43" s="2">
-        <v>31894</v>
+        <v>46</v>
       </c>
       <c r="K43" s="2">
-        <v>175928</v>
+        <v>115</v>
       </c>
       <c r="L43" s="4">
-        <v>616161</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -15972,34 +15971,34 @@
         <v>9</v>
       </c>
       <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
         <v>2</v>
       </c>
-      <c r="D44" s="2">
+      <c r="F44" s="2">
+        <v>6</v>
+      </c>
+      <c r="G44" s="2">
+        <v>11</v>
+      </c>
+      <c r="H44" s="2">
+        <v>16</v>
+      </c>
+      <c r="I44" s="2">
         <v>21</v>
       </c>
-      <c r="E44" s="2">
-        <v>90</v>
-      </c>
-      <c r="F44" s="2">
-        <v>529</v>
-      </c>
-      <c r="G44" s="2">
-        <v>2048</v>
-      </c>
-      <c r="H44" s="2">
-        <v>4456</v>
-      </c>
-      <c r="I44" s="2">
-        <v>7730</v>
-      </c>
       <c r="J44" s="2">
-        <v>32097</v>
+        <v>51</v>
       </c>
       <c r="K44" s="2">
-        <v>181377</v>
+        <v>117</v>
       </c>
       <c r="L44" s="4">
-        <v>623966</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -16007,34 +16006,34 @@
         <v>10</v>
       </c>
       <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
         <v>1</v>
       </c>
-      <c r="D45" s="1">
-        <v>21</v>
-      </c>
       <c r="E45" s="1">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="F45" s="1">
-        <v>526</v>
+        <v>6</v>
       </c>
       <c r="G45" s="1">
-        <v>2110</v>
+        <v>11</v>
       </c>
       <c r="H45" s="1">
-        <v>4444</v>
+        <v>16</v>
       </c>
       <c r="I45" s="1">
-        <v>7780</v>
+        <v>23</v>
       </c>
       <c r="J45" s="1">
-        <v>34134</v>
+        <v>46</v>
       </c>
       <c r="K45" s="1">
-        <v>178518</v>
+        <v>117</v>
       </c>
       <c r="L45" s="5">
-        <v>614676</v>
+        <v>217</v>
       </c>
       <c r="M45" s="2"/>
     </row>
@@ -16044,43 +16043,43 @@
       </c>
       <c r="C46" s="16">
         <f>AVERAGE(C36:C45)</f>
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D46" s="16">
         <f>AVERAGE(D36:D45)</f>
-        <v>22.5</v>
+        <v>1</v>
       </c>
       <c r="E46" s="16">
         <f>AVERAGE(E36:E45)</f>
-        <v>92.6</v>
+        <v>2.1</v>
       </c>
       <c r="F46" s="16">
         <f>AVERAGE(F36:F45)</f>
-        <v>539.29999999999995</v>
+        <v>5.6</v>
       </c>
       <c r="G46" s="16">
         <f t="shared" ref="G46:L46" si="4">AVERAGE(G36:G45)</f>
-        <v>2091.6999999999998</v>
+        <v>10.6</v>
       </c>
       <c r="H46" s="16">
         <f t="shared" si="4"/>
-        <v>4450.3999999999996</v>
+        <v>16.2</v>
       </c>
       <c r="I46" s="16">
         <f t="shared" si="4"/>
-        <v>7818.6</v>
+        <v>22.4</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" si="4"/>
-        <v>31694.400000000001</v>
+        <v>47.3</v>
       </c>
       <c r="K46" s="16">
         <f t="shared" si="4"/>
-        <v>179290.2</v>
+        <v>124.5</v>
       </c>
       <c r="L46" s="17">
         <f t="shared" si="4"/>
-        <v>635048.4</v>
+        <v>238.9</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -16093,39 +16092,39 @@
       </c>
       <c r="D47" s="1">
         <f>_xlfn.VAR.P(D36:D45)</f>
-        <v>4.8499999999999996</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" ref="E47:L47" si="5">_xlfn.VAR.P(E36:E45)</f>
-        <v>37.040000000000006</v>
+        <v>0.09</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="5"/>
-        <v>262.61</v>
+        <v>0.24</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="5"/>
-        <v>1653.61</v>
+        <v>0.24</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="5"/>
-        <v>121.03999999999999</v>
+        <v>0.16000000000000006</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="5"/>
-        <v>23279.24</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="5"/>
-        <v>1985105.2399999998</v>
+        <v>5.01</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="5"/>
-        <v>5059474.76</v>
+        <v>42.65</v>
       </c>
       <c r="L47" s="5">
         <f t="shared" si="5"/>
-        <v>1116920476.6399999</v>
+        <v>503.69000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -16144,8 +16143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA39256-3695-4672-B35F-390AEC96F2C8}">
   <dimension ref="B2:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView topLeftCell="E34" workbookViewId="0">
+      <selection activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16156,19 +16155,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -16658,19 +16657,19 @@
       <c r="L16" s="3"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="20"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
@@ -17148,19 +17147,19 @@
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="20"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="30"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
@@ -17202,34 +17201,34 @@
         <v>1</v>
       </c>
       <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
         <v>1</v>
       </c>
-      <c r="D36" s="2">
-        <v>18</v>
-      </c>
       <c r="E36" s="2">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="F36" s="2">
-        <v>513</v>
+        <v>5</v>
       </c>
       <c r="G36" s="2">
-        <v>1949</v>
+        <v>11</v>
       </c>
       <c r="H36" s="2">
-        <v>3953</v>
+        <v>19</v>
       </c>
       <c r="I36" s="2">
-        <v>6979</v>
+        <v>21</v>
       </c>
       <c r="J36" s="2">
-        <v>27301</v>
+        <v>44</v>
       </c>
       <c r="K36" s="2">
-        <v>185474</v>
+        <v>103</v>
       </c>
       <c r="L36" s="4">
-        <v>731112</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -17240,31 +17239,31 @@
         <v>1</v>
       </c>
       <c r="D37" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E37" s="2">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="F37" s="2">
-        <v>540</v>
+        <v>5</v>
       </c>
       <c r="G37" s="2">
-        <v>1659</v>
+        <v>11</v>
       </c>
       <c r="H37" s="2">
-        <v>3702</v>
+        <v>17</v>
       </c>
       <c r="I37" s="2">
-        <v>6926</v>
+        <v>20</v>
       </c>
       <c r="J37" s="2">
-        <v>28434</v>
+        <v>44</v>
       </c>
       <c r="K37" s="2">
-        <v>192066</v>
+        <v>104</v>
       </c>
       <c r="L37" s="4">
-        <v>734554</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -17272,34 +17271,34 @@
         <v>3</v>
       </c>
       <c r="C38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2">
+        <v>6</v>
+      </c>
+      <c r="G38" s="2">
+        <v>11</v>
+      </c>
+      <c r="H38" s="2">
+        <v>15</v>
+      </c>
+      <c r="I38" s="2">
+        <v>20</v>
+      </c>
+      <c r="J38" s="2">
+        <v>48</v>
+      </c>
+      <c r="K38" s="2">
         <v>103</v>
       </c>
-      <c r="F38" s="2">
-        <v>481</v>
-      </c>
-      <c r="G38" s="2">
-        <v>1680</v>
-      </c>
-      <c r="H38" s="2">
-        <v>3639</v>
-      </c>
-      <c r="I38" s="2">
-        <v>6815</v>
-      </c>
-      <c r="J38" s="2">
-        <v>26853</v>
-      </c>
-      <c r="K38" s="2">
-        <v>172465</v>
-      </c>
       <c r="L38" s="4">
-        <v>738494</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
@@ -17307,34 +17306,34 @@
         <v>4</v>
       </c>
       <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
         <v>1</v>
       </c>
-      <c r="D39" s="2">
-        <v>30</v>
-      </c>
       <c r="E39" s="2">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="F39" s="2">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="G39" s="2">
-        <v>1682</v>
+        <v>10</v>
       </c>
       <c r="H39" s="2">
-        <v>3653</v>
+        <v>17</v>
       </c>
       <c r="I39" s="2">
-        <v>6761</v>
+        <v>21</v>
       </c>
       <c r="J39" s="2">
-        <v>26476</v>
+        <v>43</v>
       </c>
       <c r="K39" s="2">
-        <v>172697</v>
+        <v>103</v>
       </c>
       <c r="L39" s="4">
-        <v>766781</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -17342,34 +17341,34 @@
         <v>5</v>
       </c>
       <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
         <v>1</v>
       </c>
-      <c r="D40" s="2">
-        <v>27</v>
-      </c>
       <c r="E40" s="2">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="F40" s="2">
-        <v>441</v>
+        <v>5</v>
       </c>
       <c r="G40" s="2">
-        <v>1711</v>
+        <v>11</v>
       </c>
       <c r="H40" s="2">
-        <v>3772</v>
+        <v>16</v>
       </c>
       <c r="I40" s="2">
-        <v>6787</v>
+        <v>28</v>
       </c>
       <c r="J40" s="2">
-        <v>26998</v>
+        <v>43</v>
       </c>
       <c r="K40" s="2">
-        <v>176790</v>
+        <v>103</v>
       </c>
       <c r="L40" s="4">
-        <v>740781</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -17377,34 +17376,34 @@
         <v>6</v>
       </c>
       <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
         <v>1</v>
       </c>
-      <c r="D41" s="2">
-        <v>25</v>
-      </c>
       <c r="E41" s="2">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="F41" s="2">
-        <v>476</v>
+        <v>5</v>
       </c>
       <c r="G41" s="2">
-        <v>1692</v>
+        <v>11</v>
       </c>
       <c r="H41" s="2">
-        <v>3787</v>
+        <v>17</v>
       </c>
       <c r="I41" s="2">
-        <v>6616</v>
+        <v>21</v>
       </c>
       <c r="J41" s="2">
-        <v>26880</v>
+        <v>42</v>
       </c>
       <c r="K41" s="2">
-        <v>173146</v>
+        <v>103</v>
       </c>
       <c r="L41" s="4">
-        <v>744832</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -17412,34 +17411,34 @@
         <v>7</v>
       </c>
       <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
         <v>1</v>
       </c>
-      <c r="D42" s="2">
-        <v>28</v>
-      </c>
       <c r="E42" s="2">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="F42" s="2">
-        <v>439</v>
+        <v>5</v>
       </c>
       <c r="G42" s="2">
-        <v>1679</v>
+        <v>11</v>
       </c>
       <c r="H42" s="2">
-        <v>3766</v>
+        <v>22</v>
       </c>
       <c r="I42" s="2">
-        <v>6652</v>
+        <v>21</v>
       </c>
       <c r="J42" s="2">
-        <v>26601</v>
+        <v>45</v>
       </c>
       <c r="K42" s="2">
-        <v>174392</v>
+        <v>102</v>
       </c>
       <c r="L42" s="4">
-        <v>748824</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -17447,34 +17446,34 @@
         <v>8</v>
       </c>
       <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
         <v>1</v>
       </c>
-      <c r="D43" s="2">
-        <v>25</v>
-      </c>
       <c r="E43" s="2">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="F43" s="2">
-        <v>443</v>
+        <v>5</v>
       </c>
       <c r="G43" s="2">
-        <v>1684</v>
+        <v>11</v>
       </c>
       <c r="H43" s="2">
-        <v>3639</v>
+        <v>17</v>
       </c>
       <c r="I43" s="2">
-        <v>6772</v>
+        <v>21</v>
       </c>
       <c r="J43" s="2">
-        <v>28396</v>
+        <v>42</v>
       </c>
       <c r="K43" s="2">
-        <v>174975</v>
+        <v>107</v>
       </c>
       <c r="L43" s="4">
-        <v>748654</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -17482,34 +17481,34 @@
         <v>9</v>
       </c>
       <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
         <v>1</v>
       </c>
-      <c r="D44" s="2">
-        <v>18</v>
-      </c>
       <c r="E44" s="2">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="F44" s="2">
-        <v>449</v>
+        <v>5</v>
       </c>
       <c r="G44" s="2">
-        <v>1771</v>
+        <v>11</v>
       </c>
       <c r="H44" s="2">
-        <v>3648</v>
+        <v>16</v>
       </c>
       <c r="I44" s="2">
-        <v>6595</v>
+        <v>21</v>
       </c>
       <c r="J44" s="2">
-        <v>27619</v>
+        <v>43</v>
       </c>
       <c r="K44" s="2">
-        <v>177023</v>
+        <v>103</v>
       </c>
       <c r="L44" s="4">
-        <v>749009</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -17517,34 +17516,34 @@
         <v>10</v>
       </c>
       <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
         <v>1</v>
       </c>
-      <c r="D45" s="1">
-        <v>18</v>
-      </c>
       <c r="E45" s="1">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="F45" s="1">
-        <v>434</v>
+        <v>5</v>
       </c>
       <c r="G45" s="1">
-        <v>1684</v>
+        <v>11</v>
       </c>
       <c r="H45" s="1">
-        <v>3672</v>
+        <v>16</v>
       </c>
       <c r="I45" s="1">
-        <v>6733</v>
+        <v>26</v>
       </c>
       <c r="J45" s="1">
-        <v>27387</v>
+        <v>45</v>
       </c>
       <c r="K45" s="1">
-        <v>194808</v>
+        <v>103</v>
       </c>
       <c r="L45" s="5">
-        <v>748340</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -17553,43 +17552,43 @@
       </c>
       <c r="C46" s="16">
         <f>AVERAGE(C36:C45)</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D46" s="16">
         <f>AVERAGE(D36:D45)</f>
-        <v>22.6</v>
+        <v>0.9</v>
       </c>
       <c r="E46" s="16">
         <f>AVERAGE(E36:E45)</f>
-        <v>84.4</v>
+        <v>2.1</v>
       </c>
       <c r="F46" s="16">
         <f t="shared" ref="F46:L46" si="4">AVERAGE(F36:F45)</f>
-        <v>462.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G46" s="16">
         <f t="shared" si="4"/>
-        <v>1719.1</v>
+        <v>10.9</v>
       </c>
       <c r="H46" s="16">
         <f t="shared" si="4"/>
-        <v>3723.1</v>
+        <v>17.2</v>
       </c>
       <c r="I46" s="16">
         <f t="shared" si="4"/>
-        <v>6763.6</v>
+        <v>22</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" si="4"/>
-        <v>27294.5</v>
+        <v>43.9</v>
       </c>
       <c r="K46" s="16">
         <f t="shared" si="4"/>
-        <v>179383.6</v>
+        <v>103.4</v>
       </c>
       <c r="L46" s="17">
         <f t="shared" si="4"/>
-        <v>745138.1</v>
+        <v>186.3</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -17598,43 +17597,43 @@
       </c>
       <c r="C47" s="1">
         <f>_xlfn.VAR.P(C36:C45)</f>
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="D47" s="1">
         <f>_xlfn.VAR.P(D36:D45)</f>
-        <v>21.24</v>
+        <v>0.09</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" ref="E47:K47" si="5">_xlfn.VAR.P(E36:E45)</f>
-        <v>142.04</v>
+        <v>0.09</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="5"/>
-        <v>1391.8899999999999</v>
+        <v>8.9999999999999983E-2</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="5"/>
-        <v>6693.6900000000005</v>
+        <v>8.9999999999999983E-2</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="5"/>
-        <v>8892.489999999998</v>
+        <v>3.56</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="5"/>
-        <v>13964.039999999999</v>
+        <v>6.6</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="5"/>
-        <v>423119.05</v>
+        <v>2.890000000000001</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="5"/>
-        <v>62398467.439999998</v>
+        <v>1.64</v>
       </c>
       <c r="L47" s="5">
         <f>_xlfn.VAR.P(L36:L45)</f>
-        <v>89157529.890000015</v>
+        <v>8.6099999999999977</v>
       </c>
     </row>
   </sheetData>
@@ -17653,8 +17652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CA9B0B-6E4A-4DC5-8A5C-4BD9F8C6BE37}">
   <dimension ref="B2:L47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="W42" sqref="W42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17665,19 +17664,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -18155,19 +18154,19 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="20"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
@@ -18658,19 +18657,19 @@
       <c r="L32" s="6"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="20"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="30"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
@@ -18712,34 +18711,34 @@
         <v>1</v>
       </c>
       <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
         <v>1</v>
       </c>
-      <c r="D36" s="2">
-        <v>18</v>
-      </c>
       <c r="E36" s="2">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="F36" s="2">
-        <v>384</v>
+        <v>2</v>
       </c>
       <c r="G36" s="2">
-        <v>1538</v>
+        <v>4</v>
       </c>
       <c r="H36" s="2">
-        <v>3749</v>
+        <v>6</v>
       </c>
       <c r="I36" s="2">
-        <v>6155</v>
+        <v>8</v>
       </c>
       <c r="J36" s="2">
-        <v>25488</v>
+        <v>15</v>
       </c>
       <c r="K36" s="2">
-        <v>177410</v>
+        <v>37</v>
       </c>
       <c r="L36" s="4">
-        <v>800141</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -18750,31 +18749,31 @@
         <v>1</v>
       </c>
       <c r="D37" s="2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E37" s="2">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="F37" s="2">
-        <v>417</v>
+        <v>2</v>
       </c>
       <c r="G37" s="2">
-        <v>1509</v>
+        <v>4</v>
       </c>
       <c r="H37" s="2">
-        <v>3432</v>
+        <v>6</v>
       </c>
       <c r="I37" s="2">
-        <v>6149</v>
+        <v>7</v>
       </c>
       <c r="J37" s="2">
-        <v>25163</v>
+        <v>14</v>
       </c>
       <c r="K37" s="2">
-        <v>177432</v>
+        <v>36</v>
       </c>
       <c r="L37" s="4">
-        <v>778327</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -18782,34 +18781,34 @@
         <v>3</v>
       </c>
       <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
         <v>1</v>
       </c>
-      <c r="D38" s="2">
-        <v>17</v>
-      </c>
       <c r="E38" s="2">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="F38" s="2">
-        <v>409</v>
+        <v>3</v>
       </c>
       <c r="G38" s="2">
-        <v>1489</v>
+        <v>4</v>
       </c>
       <c r="H38" s="2">
-        <v>3442</v>
+        <v>6</v>
       </c>
       <c r="I38" s="2">
-        <v>6192</v>
+        <v>8</v>
       </c>
       <c r="J38" s="2">
-        <v>25118</v>
+        <v>14</v>
       </c>
       <c r="K38" s="2">
-        <v>177524</v>
+        <v>52</v>
       </c>
       <c r="L38" s="4">
-        <v>783551</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
@@ -18817,34 +18816,34 @@
         <v>4</v>
       </c>
       <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
         <v>1</v>
       </c>
-      <c r="D39" s="2">
-        <v>18</v>
-      </c>
       <c r="E39" s="2">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="F39" s="2">
-        <v>403</v>
+        <v>2</v>
       </c>
       <c r="G39" s="2">
-        <v>1500</v>
+        <v>4</v>
       </c>
       <c r="H39" s="2">
-        <v>3434</v>
+        <v>6</v>
       </c>
       <c r="I39" s="2">
-        <v>6143</v>
+        <v>8</v>
       </c>
       <c r="J39" s="2">
-        <v>25055</v>
+        <v>14</v>
       </c>
       <c r="K39" s="2">
-        <v>179082</v>
+        <v>36</v>
       </c>
       <c r="L39" s="4">
-        <v>811857</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -18852,34 +18851,34 @@
         <v>5</v>
       </c>
       <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
         <v>1</v>
       </c>
-      <c r="D40" s="2">
-        <v>17</v>
-      </c>
       <c r="E40" s="2">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="F40" s="2">
-        <v>393</v>
+        <v>2</v>
       </c>
       <c r="G40" s="2">
-        <v>1499</v>
+        <v>4</v>
       </c>
       <c r="H40" s="2">
-        <v>3451</v>
+        <v>6</v>
       </c>
       <c r="I40" s="2">
-        <v>6149</v>
+        <v>8</v>
       </c>
       <c r="J40" s="2">
-        <v>25164</v>
+        <v>14</v>
       </c>
       <c r="K40" s="2">
-        <v>181440</v>
+        <v>35</v>
       </c>
       <c r="L40" s="4">
-        <v>790292</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -18887,34 +18886,34 @@
         <v>6</v>
       </c>
       <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
         <v>1</v>
       </c>
-      <c r="D41" s="2">
-        <v>18</v>
-      </c>
-      <c r="E41" s="2">
-        <v>63</v>
-      </c>
       <c r="F41" s="2">
-        <v>375</v>
+        <v>4</v>
       </c>
       <c r="G41" s="2">
-        <v>1497</v>
+        <v>4</v>
       </c>
       <c r="H41" s="2">
-        <v>3434</v>
+        <v>6</v>
       </c>
       <c r="I41" s="2">
-        <v>6556</v>
+        <v>7</v>
       </c>
       <c r="J41" s="2">
-        <v>25038</v>
+        <v>14</v>
       </c>
       <c r="K41" s="2">
-        <v>183571</v>
+        <v>39</v>
       </c>
       <c r="L41" s="4">
-        <v>789612</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -18922,34 +18921,34 @@
         <v>7</v>
       </c>
       <c r="C42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E42" s="2">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="F42" s="2">
-        <v>388</v>
+        <v>3</v>
       </c>
       <c r="G42" s="2">
-        <v>1497</v>
+        <v>5</v>
       </c>
       <c r="H42" s="2">
-        <v>3434</v>
+        <v>6</v>
       </c>
       <c r="I42" s="2">
-        <v>6344</v>
+        <v>8</v>
       </c>
       <c r="J42" s="2">
-        <v>25667</v>
+        <v>14</v>
       </c>
       <c r="K42" s="2">
-        <v>181185</v>
+        <v>36</v>
       </c>
       <c r="L42" s="4">
-        <v>798544</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -18960,31 +18959,31 @@
         <v>1</v>
       </c>
       <c r="D43" s="2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E43" s="2">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="F43" s="2">
-        <v>373</v>
+        <v>2</v>
       </c>
       <c r="G43" s="2">
-        <v>1496</v>
+        <v>5</v>
       </c>
       <c r="H43" s="2">
-        <v>3436</v>
+        <v>5</v>
       </c>
       <c r="I43" s="2">
-        <v>6383</v>
+        <v>8</v>
       </c>
       <c r="J43" s="2">
-        <v>25173</v>
+        <v>14</v>
       </c>
       <c r="K43" s="2">
-        <v>212314</v>
+        <v>43</v>
       </c>
       <c r="L43" s="4">
-        <v>799568</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -18992,34 +18991,34 @@
         <v>9</v>
       </c>
       <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
         <v>1</v>
       </c>
-      <c r="D44" s="2">
-        <v>18</v>
-      </c>
       <c r="E44" s="2">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="F44" s="2">
-        <v>379</v>
+        <v>2</v>
       </c>
       <c r="G44" s="2">
-        <v>1503</v>
+        <v>4</v>
       </c>
       <c r="H44" s="2">
-        <v>3433</v>
+        <v>6</v>
       </c>
       <c r="I44" s="2">
-        <v>6315</v>
+        <v>7</v>
       </c>
       <c r="J44" s="2">
-        <v>25132</v>
+        <v>14</v>
       </c>
       <c r="K44" s="2">
-        <v>194856</v>
+        <v>36</v>
       </c>
       <c r="L44" s="4">
-        <v>825592</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -19027,34 +19026,34 @@
         <v>10</v>
       </c>
       <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
         <v>1</v>
       </c>
-      <c r="D45" s="1">
-        <v>17</v>
-      </c>
       <c r="E45" s="1">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="F45" s="1">
-        <v>371</v>
+        <v>3</v>
       </c>
       <c r="G45" s="1">
-        <v>1500</v>
+        <v>4</v>
       </c>
       <c r="H45" s="1">
-        <v>3438</v>
+        <v>5</v>
       </c>
       <c r="I45" s="1">
-        <v>6155</v>
+        <v>7</v>
       </c>
       <c r="J45" s="1">
-        <v>28422</v>
+        <v>14</v>
       </c>
       <c r="K45" s="1">
-        <v>187320</v>
+        <v>37</v>
       </c>
       <c r="L45" s="5">
-        <v>818700</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -19063,43 +19062,43 @@
       </c>
       <c r="C46" s="16">
         <f>AVERAGE(C36:C45)</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D46" s="16">
         <f>AVERAGE(D36:D45)</f>
-        <v>17.5</v>
+        <v>0.8</v>
       </c>
       <c r="E46" s="16">
         <f>AVERAGE(E36:E45)</f>
-        <v>71.099999999999994</v>
+        <v>1.4</v>
       </c>
       <c r="F46" s="16">
         <f t="shared" ref="F46:L46" si="4">AVERAGE(F36:F45)</f>
-        <v>389.2</v>
+        <v>2.5</v>
       </c>
       <c r="G46" s="16">
         <f t="shared" si="4"/>
-        <v>1502.8</v>
+        <v>4.2</v>
       </c>
       <c r="H46" s="16">
         <f t="shared" si="4"/>
-        <v>3468.3</v>
+        <v>5.8</v>
       </c>
       <c r="I46" s="16">
         <f t="shared" si="4"/>
-        <v>6254.1</v>
+        <v>7.6</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" si="4"/>
-        <v>25542</v>
+        <v>14.1</v>
       </c>
       <c r="K46" s="16">
         <f t="shared" si="4"/>
-        <v>185213.4</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="L46" s="17">
         <f t="shared" si="4"/>
-        <v>799618.4</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -19108,43 +19107,43 @@
       </c>
       <c r="C47" s="1">
         <f>_xlfn.VAR.P(C36:C45)</f>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="D47" s="1">
         <f>_xlfn.VAR.P(D36:D45)</f>
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" ref="E47:L47" si="5">_xlfn.VAR.P(E36:E45)</f>
-        <v>54.09</v>
+        <v>0.24</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="5"/>
-        <v>229.76</v>
+        <v>0.45</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="5"/>
-        <v>161.15999999999994</v>
+        <v>0.15999999999999998</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="5"/>
-        <v>8783.8100000000031</v>
+        <v>0.15999999999999998</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="5"/>
-        <v>17748.29</v>
+        <v>0.24</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="5"/>
-        <v>957468.8</v>
+        <v>8.9999999999999969E-2</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="5"/>
-        <v>108318822.64000002</v>
+        <v>24.41</v>
       </c>
       <c r="L47" s="5">
         <f t="shared" si="5"/>
-        <v>208854350.64000002</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
